--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_1_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_1_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2266324.194874621</v>
+        <v>2228287.578693345</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>421727.3537779183</v>
+        <v>421727.3537779184</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>241.5891775064833</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>274.2838073416025</v>
+        <v>7.293863480540836</v>
       </c>
       <c r="G2" t="n">
         <v>274.2838073416025</v>
@@ -679,10 +679,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>229.2635692820448</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -740,13 +740,13 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I3" t="n">
         <v>86.50354346547167</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>62.92151067925801</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>25.25982230553505</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="4">
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>161.6340720089168</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -867,10 +867,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>17.27905463269151</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="C5" t="n">
         <v>274.2838073416025</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>152.6431678852762</v>
+        <v>7.293863480540836</v>
       </c>
       <c r="G5" t="n">
         <v>14.85476540383092</v>
@@ -946,7 +946,7 @@
         <v>141.8508227008771</v>
       </c>
       <c r="S5" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>76.930448786672</v>
       </c>
       <c r="Y5" t="n">
         <v>274.2838073416025</v>
@@ -989,13 +989,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1034,10 +1034,10 @@
         <v>224.6571770672012</v>
       </c>
       <c r="V6" t="n">
-        <v>231.9087310396551</v>
+        <v>44.75502769643857</v>
       </c>
       <c r="W6" t="n">
-        <v>145.8355658494302</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>79.76069987584818</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="U7" t="n">
-        <v>99.15242676576018</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>274.2838073416025</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>136.2022795469574</v>
+        <v>7.293863480540836</v>
       </c>
       <c r="G8" t="n">
         <v>14.85476540383092</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>13.55696361942517</v>
       </c>
       <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>274.2838073416025</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,13 +1211,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D9" t="n">
-        <v>146.1124235746456</v>
+        <v>139.4243734546885</v>
       </c>
       <c r="E9" t="n">
         <v>156.0334337071738</v>
@@ -1274,13 +1274,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X9" t="n">
-        <v>78.71964920959029</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y9" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>99.15242676576018</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D11" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1417,25 +1417,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>13.93836143339708</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S11" t="n">
         <v>177.493467653868</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>137.5495906883384</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X11" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>20.11577975570017</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C12" t="n">
         <v>171.025583927401</v>
@@ -1469,7 +1469,7 @@
         <v>104.0288287853823</v>
       </c>
       <c r="I12" t="n">
-        <v>63.56783007605711</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,13 +1496,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>53.33473024000173</v>
+        <v>53.33473024000174</v>
       </c>
       <c r="S12" t="n">
         <v>156.5880156630749</v>
       </c>
       <c r="T12" t="n">
-        <v>195.6974464808964</v>
+        <v>50.4411006262517</v>
       </c>
       <c r="U12" t="n">
         <v>224.6133508632724</v>
@@ -1530,16 +1530,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>82.09082048982737</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>32.9952185368712</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>148.2796428708918</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>212.6245410698995</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>225.9462130081922</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>2.696742040683396</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1609,16 +1609,16 @@
         <v>383.716409991395</v>
       </c>
       <c r="C14" t="n">
-        <v>33.05105288265261</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>383.1180357552875</v>
+        <v>105.9959500467269</v>
       </c>
       <c r="F14" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>413.6097194764729</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1688,7 +1688,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C15" t="n">
-        <v>171.025583927401</v>
+        <v>89.33706814881353</v>
       </c>
       <c r="D15" t="n">
         <v>146.1124235746456</v>
@@ -1700,13 +1700,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G15" t="n">
-        <v>94.12953483606212</v>
+        <v>135.3570519053243</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>104.0288287853823</v>
       </c>
       <c r="I15" t="n">
-        <v>63.56783007605711</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>53.33473024000173</v>
+        <v>53.33473024000174</v>
       </c>
       <c r="S15" t="n">
         <v>156.5880156630749</v>
@@ -1809,10 +1809,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>32.9952185368712</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>148.2796428708918</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>212.6245410698995</v>
@@ -1821,13 +1821,13 @@
         <v>225.9462130081922</v>
       </c>
       <c r="U16" t="n">
-        <v>2.696742040683396</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>183.9716034484464</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F17" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1900,19 +1900,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>230.1911706999668</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V17" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.6870717512358</v>
+        <v>365.1208578287607</v>
       </c>
     </row>
     <row r="18">
@@ -1925,7 +1925,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C18" t="n">
-        <v>25.76923807275637</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D18" t="n">
         <v>146.1124235746456</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>53.33473024000174</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>156.5880156630749</v>
+        <v>64.66640004843207</v>
       </c>
       <c r="T18" t="n">
         <v>195.6974464808964</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>80.98539745812192</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2013,19 +2013,19 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>100.4021213728588</v>
+        <v>167.3311041893321</v>
       </c>
       <c r="H19" t="n">
-        <v>156.6686349500177</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>136.9633875020681</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>49.35397375491781</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2046,16 +2046,16 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>32.99521853687121</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>148.2796428708918</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.9462130081922</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2089,16 +2089,16 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E20" t="n">
-        <v>352.5273821714673</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>413.6097194764729</v>
+        <v>258.8689273252167</v>
       </c>
       <c r="H20" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>157.2246747536534</v>
@@ -2128,28 +2128,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>63.64170646647294</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="21">
@@ -2177,7 +2177,7 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H21" t="n">
-        <v>104.0288287853823</v>
+        <v>12.1072131707399</v>
       </c>
       <c r="I21" t="n">
         <v>63.56783007605712</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>53.33473024000174</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>156.5880156630749</v>
@@ -2228,7 +2228,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y21" t="n">
-        <v>58.41480556394149</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="22">
@@ -2292,13 +2292,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>225.9462130081922</v>
+        <v>117.771876071748</v>
       </c>
       <c r="U22" t="n">
-        <v>143.6597934514067</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V22" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="23">
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C23" t="n">
-        <v>175.6322887537066</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E23" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.6097194764729</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>325.3930767845979</v>
       </c>
       <c r="I23" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>63.64170646647294</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>210.183964523086</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="24">
@@ -2399,7 +2399,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C24" t="n">
-        <v>25.76923807275637</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D24" t="n">
         <v>146.1124235746456</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>53.33473024000174</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>156.5880156630749</v>
@@ -2459,7 +2459,7 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W24" t="n">
-        <v>249.98934675</v>
+        <v>158.0677311353575</v>
       </c>
       <c r="X24" t="n">
         <v>204.4616296084783</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2535,16 +2535,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>223.709992168086</v>
+        <v>202.2694535283966</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2563,13 +2563,13 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>73.00902452649065</v>
       </c>
       <c r="G26" t="n">
-        <v>354.0214824515165</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2602,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>63.64170646647294</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X26" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2681,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>53.33473024000174</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>11.33166980843018</v>
+        <v>156.5880156630749</v>
       </c>
       <c r="T27" t="n">
         <v>195.6974464808964</v>
@@ -2696,7 +2696,7 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W27" t="n">
-        <v>249.98934675</v>
+        <v>158.0677311353575</v>
       </c>
       <c r="X27" t="n">
         <v>204.4616296084783</v>
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>148.2796428708918</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2769,19 +2769,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.0218075870219</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>50.42797305210065</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>101.1477305501378</v>
       </c>
     </row>
     <row r="29">
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F29" t="n">
-        <v>174.6924936692933</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.6097194764729</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,10 +2845,10 @@
         <v>177.493467653868</v>
       </c>
       <c r="T29" t="n">
-        <v>217.5149286494106</v>
+        <v>49.38877905556024</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>328.5332215225193</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>149.0055665145194</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>156.6686349500177</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>212.6245410698995</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3012,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>104.2436149921015</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>126.1165465901325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>383.1180357552875</v>
       </c>
       <c r="F32" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>175.6063564671981</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>211.409893162208</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y32" t="n">
         <v>386.6870717512358</v>
@@ -3113,7 +3113,7 @@
         <v>171.025583927401</v>
       </c>
       <c r="D33" t="n">
-        <v>146.1124235746456</v>
+        <v>0.8560777200009522</v>
       </c>
       <c r="E33" t="n">
         <v>156.0334337071738</v>
@@ -3122,10 +3122,10 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G33" t="n">
-        <v>94.12953483606209</v>
+        <v>135.3570519053243</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>104.0288287853823</v>
       </c>
       <c r="I33" t="n">
         <v>63.56783007605712</v>
@@ -3240,19 +3240,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>150.8573325918306</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W34" t="n">
-        <v>177.6533237264606</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.7486738677682</v>
@@ -3268,10 +3268,10 @@
         <v>383.716409991395</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D35" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>122.098256942141</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.6870717512358</v>
+        <v>9.790086366470106</v>
       </c>
     </row>
     <row r="36">
@@ -3347,7 +3347,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C36" t="n">
-        <v>171.025583927401</v>
+        <v>79.10396831275835</v>
       </c>
       <c r="D36" t="n">
         <v>146.1124235746456</v>
@@ -3362,10 +3362,10 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H36" t="n">
-        <v>22.34031300679495</v>
+        <v>104.0288287853823</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>53.33473024000174</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>156.5880156630749</v>
@@ -3429,10 +3429,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>40.46958995140405</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3468,25 +3468,25 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>32.99521853687121</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>148.2796428708918</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>212.6245410698995</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>225.9462130081922</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>2.696742040683375</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3508,22 +3508,22 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E38" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G38" t="n">
         <v>413.6097194764729</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,10 +3550,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>63.64170646647294</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T38" t="n">
         <v>217.5149286494106</v>
@@ -3562,16 +3562,16 @@
         <v>251.3781599023558</v>
       </c>
       <c r="V38" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>64.99860535488924</v>
+        <v>153.498942423701</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3590,7 +3590,7 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E39" t="n">
-        <v>156.0334337071738</v>
+        <v>64.11181809253137</v>
       </c>
       <c r="F39" t="n">
         <v>143.5062320835493</v>
@@ -3629,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>53.33473024000174</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>11.33166980843018</v>
+        <v>156.5880156630749</v>
       </c>
       <c r="T39" t="n">
         <v>195.6974464808964</v>
@@ -3663,19 +3663,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>22.95965503998601</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3311041893321</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>212.6245410698995</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3723,13 +3723,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>16.44090359312703</v>
       </c>
     </row>
     <row r="41">
@@ -3742,16 +3742,16 @@
         <v>383.716409991395</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D41" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F41" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>172.1609816246896</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V41" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W41" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>262.471621998421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>53.33473024000174</v>
       </c>
       <c r="S42" t="n">
-        <v>64.66640004843207</v>
+        <v>156.5880156630749</v>
       </c>
       <c r="T42" t="n">
         <v>195.6974464808964</v>
@@ -3878,7 +3878,7 @@
         <v>224.6133508632724</v>
       </c>
       <c r="V42" t="n">
-        <v>231.9087310396551</v>
+        <v>86.65238518501074</v>
       </c>
       <c r="W42" t="n">
         <v>249.98934675</v>
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,16 +3912,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3311041893321</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>156.6686349500177</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>136.9633875020681</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>49.35397375491781</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3942,10 +3942,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>32.99521853687121</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>79.23003859333089</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3960,10 +3960,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>187.4442141246032</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3994,10 +3994,10 @@
         <v>413.6097194764729</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,28 +4024,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>108.0335200920572</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>326.0140791707781</v>
       </c>
     </row>
     <row r="45">
@@ -4067,10 +4067,10 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F45" t="n">
-        <v>133.606938134229</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>135.3570519053243</v>
       </c>
       <c r="H45" t="n">
         <v>104.0288287853823</v>
@@ -4118,7 +4118,7 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W45" t="n">
-        <v>249.98934675</v>
+        <v>104.7330008953557</v>
       </c>
       <c r="X45" t="n">
         <v>204.4616296084783</v>
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3311041893321</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>156.6686349500177</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>45.6062673202491</v>
+        <v>136.9633875020681</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,13 +4188,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>32.22060950624578</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V46" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>576.0514062875353</v>
+        <v>514.3278114810956</v>
       </c>
       <c r="C2" t="n">
-        <v>576.0514062875353</v>
+        <v>514.3278114810956</v>
       </c>
       <c r="D2" t="n">
-        <v>576.0514062875353</v>
+        <v>514.3278114810956</v>
       </c>
       <c r="E2" t="n">
-        <v>576.0514062875353</v>
+        <v>514.3278114810956</v>
       </c>
       <c r="F2" t="n">
-        <v>298.9970554374318</v>
+        <v>506.9602726118625</v>
       </c>
       <c r="G2" t="n">
-        <v>21.9427045873282</v>
+        <v>229.9059217617589</v>
       </c>
       <c r="H2" t="n">
-        <v>21.9427045873282</v>
+        <v>229.9059217617589</v>
       </c>
       <c r="I2" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="J2" t="n">
         <v>21.9427045873282</v>
@@ -4354,28 +4354,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R2" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S2" t="n">
-        <v>1097.13522936641</v>
+        <v>745.907174392252</v>
       </c>
       <c r="T2" t="n">
-        <v>1097.13522936641</v>
+        <v>745.907174392252</v>
       </c>
       <c r="U2" t="n">
-        <v>1097.13522936641</v>
+        <v>745.907174392252</v>
       </c>
       <c r="V2" t="n">
-        <v>1097.13522936641</v>
+        <v>514.3278114810956</v>
       </c>
       <c r="W2" t="n">
-        <v>1097.13522936641</v>
+        <v>514.3278114810956</v>
       </c>
       <c r="X2" t="n">
-        <v>1097.13522936641</v>
+        <v>514.3278114810956</v>
       </c>
       <c r="Y2" t="n">
-        <v>820.0808785163064</v>
+        <v>514.3278114810956</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>109.3200212191178</v>
+        <v>698.8492704427069</v>
       </c>
       <c r="C3" t="n">
-        <v>109.3200212191178</v>
+        <v>526.0961553645241</v>
       </c>
       <c r="D3" t="n">
-        <v>109.3200212191178</v>
+        <v>378.5078487234679</v>
       </c>
       <c r="E3" t="n">
-        <v>109.3200212191178</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="F3" t="n">
-        <v>109.3200212191178</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="G3" t="n">
-        <v>109.3200212191178</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="H3" t="n">
         <v>109.3200212191178</v>
@@ -4418,43 +4418,43 @@
         <v>409.2622680873972</v>
       </c>
       <c r="M3" t="n">
-        <v>627.0237902632265</v>
+        <v>476.5364731046047</v>
       </c>
       <c r="N3" t="n">
-        <v>898.564759531413</v>
+        <v>748.0774423727912</v>
       </c>
       <c r="O3" t="n">
-        <v>898.564759531413</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="P3" t="n">
-        <v>1097.13522936641</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q3" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R3" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S3" t="n">
-        <v>937.9266531640369</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T3" t="n">
-        <v>737.5402572970988</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U3" t="n">
-        <v>510.6138158150773</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V3" t="n">
-        <v>276.3625723406782</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W3" t="n">
-        <v>276.3625723406782</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X3" t="n">
-        <v>276.3625723406782</v>
+        <v>1071.620257340617</v>
       </c>
       <c r="Y3" t="n">
-        <v>276.3625723406782</v>
+        <v>865.8918215642674</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21.9427045873282</v>
+        <v>185.2094439902745</v>
       </c>
       <c r="C4" t="n">
-        <v>21.9427045873282</v>
+        <v>185.2094439902745</v>
       </c>
       <c r="D4" t="n">
-        <v>21.9427045873282</v>
+        <v>185.2094439902745</v>
       </c>
       <c r="E4" t="n">
-        <v>21.9427045873282</v>
+        <v>185.2094439902745</v>
       </c>
       <c r="F4" t="n">
-        <v>21.9427045873282</v>
+        <v>185.2094439902745</v>
       </c>
       <c r="G4" t="n">
-        <v>21.9427045873282</v>
+        <v>185.2094439902745</v>
       </c>
       <c r="H4" t="n">
         <v>21.9427045873282</v>
@@ -4515,25 +4515,25 @@
         <v>202.6630345283467</v>
       </c>
       <c r="S4" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T4" t="n">
-        <v>21.9427045873282</v>
+        <v>185.2094439902745</v>
       </c>
       <c r="U4" t="n">
-        <v>21.9427045873282</v>
+        <v>185.2094439902745</v>
       </c>
       <c r="V4" t="n">
-        <v>21.9427045873282</v>
+        <v>185.2094439902745</v>
       </c>
       <c r="W4" t="n">
-        <v>21.9427045873282</v>
+        <v>185.2094439902745</v>
       </c>
       <c r="X4" t="n">
-        <v>21.9427045873282</v>
+        <v>185.2094439902745</v>
       </c>
       <c r="Y4" t="n">
-        <v>21.9427045873282</v>
+        <v>185.2094439902745</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>468.8528235421485</v>
+        <v>322.0353443454461</v>
       </c>
       <c r="C5" t="n">
-        <v>191.7984726920449</v>
+        <v>44.98099349534252</v>
       </c>
       <c r="D5" t="n">
-        <v>191.7984726920449</v>
+        <v>44.98099349534252</v>
       </c>
       <c r="E5" t="n">
-        <v>191.7984726920449</v>
+        <v>44.98099349534252</v>
       </c>
       <c r="F5" t="n">
         <v>37.61345462610935</v>
@@ -4594,25 +4594,25 @@
         <v>953.8515700725947</v>
       </c>
       <c r="S5" t="n">
-        <v>745.907174392252</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="T5" t="n">
-        <v>745.907174392252</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="U5" t="n">
-        <v>745.907174392252</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="V5" t="n">
-        <v>745.907174392252</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="W5" t="n">
-        <v>745.907174392252</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="X5" t="n">
-        <v>745.907174392252</v>
+        <v>876.1440460456532</v>
       </c>
       <c r="Y5" t="n">
-        <v>468.8528235421485</v>
+        <v>599.0896951955497</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.9427045873282</v>
+        <v>358.2955017516178</v>
       </c>
       <c r="C6" t="n">
-        <v>21.9427045873282</v>
+        <v>358.2955017516178</v>
       </c>
       <c r="D6" t="n">
-        <v>21.9427045873282</v>
+        <v>358.2955017516178</v>
       </c>
       <c r="E6" t="n">
-        <v>21.9427045873282</v>
+        <v>358.2955017516178</v>
       </c>
       <c r="F6" t="n">
-        <v>21.9427045873282</v>
+        <v>358.2955017516178</v>
       </c>
       <c r="G6" t="n">
-        <v>21.9427045873282</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="H6" t="n">
-        <v>21.9427045873282</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="I6" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="J6" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K6" t="n">
-        <v>168.577974491964</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L6" t="n">
-        <v>416.655578933882</v>
+        <v>270.0203090292462</v>
       </c>
       <c r="M6" t="n">
-        <v>416.655578933882</v>
+        <v>541.5612782974326</v>
       </c>
       <c r="N6" t="n">
-        <v>630.6851405540922</v>
+        <v>813.1022475656191</v>
       </c>
       <c r="O6" t="n">
-        <v>898.564759531413</v>
+        <v>1080.98186654294</v>
       </c>
       <c r="P6" t="n">
         <v>1097.13522936641</v>
@@ -4682,16 +4682,16 @@
         <v>403.5026004348891</v>
       </c>
       <c r="V6" t="n">
-        <v>169.25135696049</v>
+        <v>358.2955017516178</v>
       </c>
       <c r="W6" t="n">
-        <v>21.9427045873282</v>
+        <v>358.2955017516178</v>
       </c>
       <c r="X6" t="n">
-        <v>21.9427045873282</v>
+        <v>358.2955017516178</v>
       </c>
       <c r="Y6" t="n">
-        <v>21.9427045873282</v>
+        <v>358.2955017516178</v>
       </c>
     </row>
     <row r="7">
@@ -4746,16 +4746,16 @@
         <v>202.6630345283467</v>
       </c>
       <c r="Q7" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R7" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S7" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T7" t="n">
-        <v>122.096671017389</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="U7" t="n">
         <v>21.9427045873282</v>
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>174.5255782749932</v>
+        <v>529.3326250203188</v>
       </c>
       <c r="C8" t="n">
-        <v>174.5255782749932</v>
+        <v>252.2782741702153</v>
       </c>
       <c r="D8" t="n">
-        <v>174.5255782749932</v>
+        <v>252.2782741702153</v>
       </c>
       <c r="E8" t="n">
-        <v>174.5255782749932</v>
+        <v>252.2782741702153</v>
       </c>
       <c r="F8" t="n">
-        <v>36.94751812655136</v>
+        <v>244.9107353009821</v>
       </c>
       <c r="G8" t="n">
-        <v>21.9427045873282</v>
+        <v>229.9059217617589</v>
       </c>
       <c r="H8" t="n">
-        <v>21.9427045873282</v>
+        <v>229.9059217617589</v>
       </c>
       <c r="I8" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="J8" t="n">
         <v>21.9427045873282</v>
@@ -4828,28 +4828,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R8" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S8" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T8" t="n">
-        <v>728.6342799752003</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U8" t="n">
-        <v>728.6342799752003</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V8" t="n">
-        <v>728.6342799752003</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W8" t="n">
-        <v>728.6342799752003</v>
+        <v>1083.441326720526</v>
       </c>
       <c r="X8" t="n">
-        <v>451.5799291250968</v>
+        <v>1083.441326720526</v>
       </c>
       <c r="Y8" t="n">
-        <v>451.5799291250968</v>
+        <v>806.3869758704224</v>
       </c>
     </row>
     <row r="9">
@@ -4859,10 +4859,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>644.8494452870956</v>
+        <v>638.0938391053207</v>
       </c>
       <c r="C9" t="n">
-        <v>472.0963302089128</v>
+        <v>465.3407240271379</v>
       </c>
       <c r="D9" t="n">
         <v>324.5080235678566</v>
@@ -4886,13 +4886,13 @@
         <v>29.3360154338131</v>
       </c>
       <c r="K9" t="n">
-        <v>29.88839882768988</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L9" t="n">
-        <v>277.9660032696079</v>
+        <v>416.655578933882</v>
       </c>
       <c r="M9" t="n">
-        <v>277.9660032696079</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="N9" t="n">
         <v>549.5069725377944</v>
@@ -4922,13 +4922,13 @@
         <v>1097.13522936641</v>
       </c>
       <c r="W9" t="n">
-        <v>1097.13522936641</v>
+        <v>844.6207376997432</v>
       </c>
       <c r="X9" t="n">
-        <v>1017.620432185006</v>
+        <v>638.0938391053207</v>
       </c>
       <c r="Y9" t="n">
-        <v>811.891996408656</v>
+        <v>638.0938391053207</v>
       </c>
     </row>
     <row r="10">
@@ -4938,10 +4938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21.9427045873282</v>
+        <v>122.096671017389</v>
       </c>
       <c r="C10" t="n">
-        <v>21.9427045873282</v>
+        <v>122.096671017389</v>
       </c>
       <c r="D10" t="n">
         <v>21.9427045873282</v>
@@ -4983,31 +4983,31 @@
         <v>202.6630345283467</v>
       </c>
       <c r="Q10" t="n">
-        <v>202.6630345283467</v>
+        <v>122.096671017389</v>
       </c>
       <c r="R10" t="n">
-        <v>202.6630345283467</v>
+        <v>122.096671017389</v>
       </c>
       <c r="S10" t="n">
-        <v>202.6630345283467</v>
+        <v>122.096671017389</v>
       </c>
       <c r="T10" t="n">
-        <v>21.9427045873282</v>
+        <v>122.096671017389</v>
       </c>
       <c r="U10" t="n">
-        <v>21.9427045873282</v>
+        <v>122.096671017389</v>
       </c>
       <c r="V10" t="n">
-        <v>21.9427045873282</v>
+        <v>122.096671017389</v>
       </c>
       <c r="W10" t="n">
-        <v>21.9427045873282</v>
+        <v>122.096671017389</v>
       </c>
       <c r="X10" t="n">
-        <v>21.9427045873282</v>
+        <v>122.096671017389</v>
       </c>
       <c r="Y10" t="n">
-        <v>21.9427045873282</v>
+        <v>122.096671017389</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1580.006106404418</v>
+        <v>1579.278861708645</v>
       </c>
       <c r="C11" t="n">
-        <v>1209.314090567102</v>
+        <v>1208.586845871329</v>
       </c>
       <c r="D11" t="n">
-        <v>849.1072898048812</v>
+        <v>1208.586845871329</v>
       </c>
       <c r="E11" t="n">
-        <v>462.1193749005504</v>
+        <v>1208.586845871329</v>
       </c>
       <c r="F11" t="n">
-        <v>50.71143199091319</v>
+        <v>797.1789029616918</v>
       </c>
       <c r="G11" t="n">
-        <v>50.71143199091319</v>
+        <v>379.3913075309111</v>
       </c>
       <c r="H11" t="n">
         <v>50.71143199091319</v>
@@ -5041,13 +5041,13 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J11" t="n">
-        <v>154.6737472370294</v>
+        <v>154.6737472370296</v>
       </c>
       <c r="K11" t="n">
-        <v>432.762901072481</v>
+        <v>432.7629010724813</v>
       </c>
       <c r="L11" t="n">
-        <v>829.7261648535821</v>
+        <v>829.7261648535823</v>
       </c>
       <c r="M11" t="n">
         <v>1286.636576300462</v>
@@ -5065,28 +5065,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R11" t="n">
-        <v>2521.492446582632</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="S11" t="n">
-        <v>2342.206115619129</v>
+        <v>2292.00071659582</v>
       </c>
       <c r="T11" t="n">
-        <v>2342.206115619129</v>
+        <v>2072.288667455001</v>
       </c>
       <c r="U11" t="n">
-        <v>2342.206115619129</v>
+        <v>2072.288667455001</v>
       </c>
       <c r="V11" t="n">
-        <v>2342.206115619129</v>
+        <v>1933.34968696173</v>
       </c>
       <c r="W11" t="n">
-        <v>2342.206115619129</v>
+        <v>1579.278861708645</v>
       </c>
       <c r="X11" t="n">
-        <v>1967.598439729059</v>
+        <v>1579.278861708645</v>
       </c>
       <c r="Y11" t="n">
-        <v>1967.598439729059</v>
+        <v>1579.278861708645</v>
       </c>
     </row>
     <row r="12">
@@ -5114,7 +5114,7 @@
         <v>220.0009863964076</v>
       </c>
       <c r="H12" t="n">
-        <v>114.9213613606678</v>
+        <v>114.9213613606679</v>
       </c>
       <c r="I12" t="n">
         <v>50.71143199091319</v>
@@ -5135,10 +5135,10 @@
         <v>1735.393833177324</v>
       </c>
       <c r="O12" t="n">
-        <v>2160.184497733399</v>
+        <v>2045.703836711752</v>
       </c>
       <c r="P12" t="n">
-        <v>2484.689915167484</v>
+        <v>2370.209254145837</v>
       </c>
       <c r="Q12" t="n">
         <v>2535.571599545659</v>
@@ -5150,22 +5150,22 @@
         <v>2323.528421865784</v>
       </c>
       <c r="T12" t="n">
-        <v>2125.854233501242</v>
+        <v>2272.5778151726</v>
       </c>
       <c r="U12" t="n">
-        <v>1898.972060912078</v>
+        <v>2045.695642583436</v>
       </c>
       <c r="V12" t="n">
-        <v>1664.720817437679</v>
+        <v>1811.444399109037</v>
       </c>
       <c r="W12" t="n">
-        <v>1412.206325771012</v>
+        <v>1558.92990744237</v>
       </c>
       <c r="X12" t="n">
-        <v>1205.67942717659</v>
+        <v>1352.403008847948</v>
       </c>
       <c r="Y12" t="n">
-        <v>999.9509914002402</v>
+        <v>1146.674573071598</v>
       </c>
     </row>
     <row r="13">
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>50.71143199091319</v>
+        <v>451.1174901669019</v>
       </c>
       <c r="C13" t="n">
-        <v>50.71143199091319</v>
+        <v>282.0906690242733</v>
       </c>
       <c r="D13" t="n">
-        <v>50.71143199091319</v>
+        <v>282.0906690242733</v>
       </c>
       <c r="E13" t="n">
-        <v>50.71143199091319</v>
+        <v>133.6314526877085</v>
       </c>
       <c r="F13" t="n">
         <v>50.71143199091319</v>
@@ -5208,7 +5208,7 @@
         <v>219.6093352368815</v>
       </c>
       <c r="M13" t="n">
-        <v>355.9743406206216</v>
+        <v>355.9743406206215</v>
       </c>
       <c r="N13" t="n">
         <v>494.2381528619504</v>
@@ -5220,31 +5220,31 @@
         <v>679.5420961591335</v>
       </c>
       <c r="Q13" t="n">
-        <v>646.2135925865364</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R13" t="n">
-        <v>496.4361755452314</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S13" t="n">
-        <v>281.6639118382623</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T13" t="n">
-        <v>53.43541385018935</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="U13" t="n">
-        <v>50.71143199091319</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="V13" t="n">
-        <v>50.71143199091319</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="W13" t="n">
-        <v>50.71143199091319</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="X13" t="n">
-        <v>50.71143199091319</v>
+        <v>451.1174901669019</v>
       </c>
       <c r="Y13" t="n">
-        <v>50.71143199091319</v>
+        <v>451.1174901669019</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2147.979266221018</v>
+        <v>1063.058321951975</v>
       </c>
       <c r="C14" t="n">
-        <v>2114.594364319349</v>
+        <v>1063.058321951975</v>
       </c>
       <c r="D14" t="n">
-        <v>1754.387563557128</v>
+        <v>1063.058321951975</v>
       </c>
       <c r="E14" t="n">
-        <v>1367.399648652797</v>
+        <v>955.9917057431599</v>
       </c>
       <c r="F14" t="n">
         <v>955.9917057431599</v>
@@ -5278,13 +5278,13 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J14" t="n">
-        <v>154.6737472370294</v>
+        <v>154.6737472370296</v>
       </c>
       <c r="K14" t="n">
-        <v>432.762901072481</v>
+        <v>432.7629010724813</v>
       </c>
       <c r="L14" t="n">
-        <v>829.7261648535821</v>
+        <v>829.7261648535823</v>
       </c>
       <c r="M14" t="n">
         <v>1286.636576300462</v>
@@ -5305,25 +5305,25 @@
         <v>2535.571599545659</v>
       </c>
       <c r="S14" t="n">
-        <v>2535.571599545659</v>
+        <v>2356.285268582156</v>
       </c>
       <c r="T14" t="n">
-        <v>2535.571599545659</v>
+        <v>2136.573219441338</v>
       </c>
       <c r="U14" t="n">
-        <v>2535.571599545659</v>
+        <v>2136.573219441338</v>
       </c>
       <c r="V14" t="n">
-        <v>2535.571599545659</v>
+        <v>1804.721480529702</v>
       </c>
       <c r="W14" t="n">
-        <v>2535.571599545659</v>
+        <v>1450.650655276616</v>
       </c>
       <c r="X14" t="n">
-        <v>2535.571599545659</v>
+        <v>1450.650655276616</v>
       </c>
       <c r="Y14" t="n">
-        <v>2535.571599545659</v>
+        <v>1450.650655276616</v>
       </c>
     </row>
     <row r="15">
@@ -5336,22 +5336,22 @@
         <v>832.9084402786798</v>
       </c>
       <c r="C15" t="n">
-        <v>660.1553252004969</v>
+        <v>742.6689775021005</v>
       </c>
       <c r="D15" t="n">
-        <v>512.5670185594408</v>
+        <v>595.0806708610443</v>
       </c>
       <c r="E15" t="n">
-        <v>354.9574895622956</v>
+        <v>437.471141863899</v>
       </c>
       <c r="F15" t="n">
-        <v>210.0016995789124</v>
+        <v>292.5153518805158</v>
       </c>
       <c r="G15" t="n">
-        <v>114.9213613606678</v>
+        <v>155.7910570266529</v>
       </c>
       <c r="H15" t="n">
-        <v>114.9213613606678</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I15" t="n">
         <v>50.71143199091319</v>
@@ -5363,19 +5363,19 @@
         <v>366.1489360814929</v>
       </c>
       <c r="L15" t="n">
-        <v>757.4212114061546</v>
+        <v>757.4212114061545</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.998092112667</v>
+        <v>1266.817695663801</v>
       </c>
       <c r="N15" t="n">
-        <v>1786.275517555499</v>
+        <v>1620.913172155677</v>
       </c>
       <c r="O15" t="n">
-        <v>2211.066182111574</v>
+        <v>2045.703836711752</v>
       </c>
       <c r="P15" t="n">
-        <v>2535.571599545659</v>
+        <v>2370.209254145837</v>
       </c>
       <c r="Q15" t="n">
         <v>2535.571599545659</v>
@@ -5445,7 +5445,7 @@
         <v>219.6093352368815</v>
       </c>
       <c r="M16" t="n">
-        <v>355.9743406206216</v>
+        <v>355.9743406206215</v>
       </c>
       <c r="N16" t="n">
         <v>494.2381528619504</v>
@@ -5457,22 +5457,22 @@
         <v>679.5420961591335</v>
       </c>
       <c r="Q16" t="n">
-        <v>646.2135925865364</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R16" t="n">
-        <v>496.4361755452314</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S16" t="n">
-        <v>281.6639118382623</v>
+        <v>464.7698324521643</v>
       </c>
       <c r="T16" t="n">
-        <v>53.43541385018935</v>
+        <v>236.5413344640914</v>
       </c>
       <c r="U16" t="n">
-        <v>50.71143199091319</v>
+        <v>236.5413344640914</v>
       </c>
       <c r="V16" t="n">
-        <v>50.71143199091319</v>
+        <v>236.5413344640914</v>
       </c>
       <c r="W16" t="n">
         <v>50.71143199091319</v>
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1193.018191500087</v>
+        <v>1184.166817866023</v>
       </c>
       <c r="C17" t="n">
-        <v>822.326175662771</v>
+        <v>1184.166817866023</v>
       </c>
       <c r="D17" t="n">
-        <v>462.1193749005504</v>
+        <v>1184.166817866023</v>
       </c>
       <c r="E17" t="n">
-        <v>462.1193749005504</v>
+        <v>797.1789029616918</v>
       </c>
       <c r="F17" t="n">
-        <v>50.71143199091319</v>
+        <v>797.1789029616918</v>
       </c>
       <c r="G17" t="n">
-        <v>50.71143199091319</v>
+        <v>379.3913075309111</v>
       </c>
       <c r="H17" t="n">
         <v>50.71143199091319</v>
@@ -5548,19 +5548,19 @@
         <v>2535.571599545659</v>
       </c>
       <c r="U17" t="n">
-        <v>2303.055265505289</v>
+        <v>2281.654266310957</v>
       </c>
       <c r="V17" t="n">
-        <v>1971.203526593653</v>
+        <v>2281.654266310957</v>
       </c>
       <c r="W17" t="n">
-        <v>1971.203526593653</v>
+        <v>1927.583441057871</v>
       </c>
       <c r="X17" t="n">
-        <v>1971.203526593653</v>
+        <v>1552.975765167801</v>
       </c>
       <c r="Y17" t="n">
-        <v>1580.610524824728</v>
+        <v>1184.166817866023</v>
       </c>
     </row>
     <row r="18">
@@ -5570,7 +5570,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>832.9084402786798</v>
+        <v>979.6320219500381</v>
       </c>
       <c r="C18" t="n">
         <v>806.8789068718552</v>
@@ -5606,10 +5606,10 @@
         <v>1266.817695663801</v>
       </c>
       <c r="N18" t="n">
-        <v>1620.913172155677</v>
+        <v>1805.095121106633</v>
       </c>
       <c r="O18" t="n">
-        <v>2045.703836711752</v>
+        <v>2229.885785662707</v>
       </c>
       <c r="P18" t="n">
         <v>2370.209254145837</v>
@@ -5618,28 +5618,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R18" t="n">
-        <v>2481.698134656769</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S18" t="n">
-        <v>2323.528421865784</v>
+        <v>2470.252003537142</v>
       </c>
       <c r="T18" t="n">
-        <v>2125.854233501242</v>
+        <v>2272.5778151726</v>
       </c>
       <c r="U18" t="n">
-        <v>1898.972060912078</v>
+        <v>2045.695642583436</v>
       </c>
       <c r="V18" t="n">
-        <v>1664.720817437679</v>
+        <v>1811.444399109037</v>
       </c>
       <c r="W18" t="n">
-        <v>1412.206325771012</v>
+        <v>1558.92990744237</v>
       </c>
       <c r="X18" t="n">
-        <v>1205.67942717659</v>
+        <v>1352.403008847948</v>
       </c>
       <c r="Y18" t="n">
-        <v>999.9509914002402</v>
+        <v>1146.674573071598</v>
       </c>
     </row>
     <row r="19">
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>646.2135925865364</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="C19" t="n">
-        <v>646.2135925865364</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="D19" t="n">
-        <v>646.2135925865364</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="E19" t="n">
-        <v>646.2135925865364</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="F19" t="n">
-        <v>498.5782174251177</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="G19" t="n">
-        <v>397.1619332101088</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H19" t="n">
-        <v>238.9107867959494</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I19" t="n">
-        <v>100.5639307332544</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J19" t="n">
         <v>50.71143199091319</v>
@@ -5694,31 +5694,31 @@
         <v>679.5420961591335</v>
       </c>
       <c r="Q19" t="n">
-        <v>646.2135925865364</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R19" t="n">
-        <v>646.2135925865364</v>
+        <v>529.7646791178286</v>
       </c>
       <c r="S19" t="n">
-        <v>646.2135925865364</v>
+        <v>529.7646791178286</v>
       </c>
       <c r="T19" t="n">
-        <v>646.2135925865364</v>
+        <v>301.5361811297556</v>
       </c>
       <c r="U19" t="n">
-        <v>646.2135925865364</v>
+        <v>301.5361811297556</v>
       </c>
       <c r="V19" t="n">
-        <v>646.2135925865364</v>
+        <v>301.5361811297556</v>
       </c>
       <c r="W19" t="n">
-        <v>646.2135925865364</v>
+        <v>301.5361811297556</v>
       </c>
       <c r="X19" t="n">
-        <v>646.2135925865364</v>
+        <v>301.5361811297556</v>
       </c>
       <c r="Y19" t="n">
-        <v>646.2135925865364</v>
+        <v>301.5361811297556</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2083.694714234682</v>
+        <v>831.2148005095682</v>
       </c>
       <c r="C20" t="n">
-        <v>2083.694714234682</v>
+        <v>831.2148005095682</v>
       </c>
       <c r="D20" t="n">
-        <v>1723.487913472461</v>
+        <v>471.0079997473476</v>
       </c>
       <c r="E20" t="n">
-        <v>1367.399648652797</v>
+        <v>471.0079997473476</v>
       </c>
       <c r="F20" t="n">
-        <v>955.9917057431599</v>
+        <v>471.0079997473476</v>
       </c>
       <c r="G20" t="n">
-        <v>538.2041103123792</v>
+        <v>209.5242347723812</v>
       </c>
       <c r="H20" t="n">
         <v>209.5242347723812</v>
@@ -5776,28 +5776,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R20" t="n">
-        <v>2471.287047559323</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S20" t="n">
-        <v>2471.287047559323</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="T20" t="n">
-        <v>2471.287047559323</v>
+        <v>2315.859550404841</v>
       </c>
       <c r="U20" t="n">
-        <v>2471.287047559323</v>
+        <v>2315.859550404841</v>
       </c>
       <c r="V20" t="n">
-        <v>2471.287047559323</v>
+        <v>1984.007811493205</v>
       </c>
       <c r="W20" t="n">
-        <v>2471.287047559323</v>
+        <v>1984.007811493205</v>
       </c>
       <c r="X20" t="n">
-        <v>2471.287047559323</v>
+        <v>1609.400135603135</v>
       </c>
       <c r="Y20" t="n">
-        <v>2471.287047559323</v>
+        <v>1218.80713383421</v>
       </c>
     </row>
     <row r="21">
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>979.6320219500381</v>
+        <v>886.7819051675707</v>
       </c>
       <c r="C21" t="n">
-        <v>806.8789068718552</v>
+        <v>714.0287900893879</v>
       </c>
       <c r="D21" t="n">
-        <v>659.290600230799</v>
+        <v>566.4404834483319</v>
       </c>
       <c r="E21" t="n">
-        <v>501.6810712336537</v>
+        <v>408.8309544511866</v>
       </c>
       <c r="F21" t="n">
-        <v>356.7252812502705</v>
+        <v>263.8751644678034</v>
       </c>
       <c r="G21" t="n">
-        <v>220.0009863964076</v>
+        <v>127.1508696139405</v>
       </c>
       <c r="H21" t="n">
         <v>114.9213613606679</v>
@@ -5831,52 +5831,52 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J21" t="n">
-        <v>50.71143199091319</v>
+        <v>120.4127199202217</v>
       </c>
       <c r="K21" t="n">
-        <v>296.4476481521845</v>
+        <v>366.1489360814929</v>
       </c>
       <c r="L21" t="n">
-        <v>687.7199234768461</v>
+        <v>757.4212114061545</v>
       </c>
       <c r="M21" t="n">
-        <v>1197.116407734492</v>
+        <v>1266.817695663801</v>
       </c>
       <c r="N21" t="n">
-        <v>1735.393833177324</v>
+        <v>1805.095121106633</v>
       </c>
       <c r="O21" t="n">
-        <v>2160.184497733399</v>
+        <v>2229.885785662707</v>
       </c>
       <c r="P21" t="n">
-        <v>2484.689915167484</v>
+        <v>2370.209254145837</v>
       </c>
       <c r="Q21" t="n">
         <v>2535.571599545659</v>
       </c>
       <c r="R21" t="n">
-        <v>2481.698134656769</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S21" t="n">
-        <v>2323.528421865784</v>
+        <v>2377.401886754675</v>
       </c>
       <c r="T21" t="n">
-        <v>2125.854233501242</v>
+        <v>2179.727698390133</v>
       </c>
       <c r="U21" t="n">
-        <v>1898.972060912078</v>
+        <v>1952.845525800969</v>
       </c>
       <c r="V21" t="n">
-        <v>1664.720817437679</v>
+        <v>1718.59428232657</v>
       </c>
       <c r="W21" t="n">
-        <v>1412.206325771012</v>
+        <v>1466.079790659903</v>
       </c>
       <c r="X21" t="n">
-        <v>1205.67942717659</v>
+        <v>1259.552892065481</v>
       </c>
       <c r="Y21" t="n">
-        <v>1146.674573071598</v>
+        <v>1053.824456289131</v>
       </c>
     </row>
     <row r="22">
@@ -5940,19 +5940,19 @@
         <v>679.5420961591335</v>
       </c>
       <c r="T22" t="n">
-        <v>451.3135981710606</v>
+        <v>560.5806051775699</v>
       </c>
       <c r="U22" t="n">
-        <v>306.2026956948922</v>
+        <v>271.6696884230023</v>
       </c>
       <c r="V22" t="n">
-        <v>50.71143199091319</v>
+        <v>271.6696884230023</v>
       </c>
       <c r="W22" t="n">
-        <v>50.71143199091319</v>
+        <v>271.6696884230023</v>
       </c>
       <c r="X22" t="n">
-        <v>50.71143199091319</v>
+        <v>271.6696884230023</v>
       </c>
       <c r="Y22" t="n">
         <v>50.71143199091319</v>
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2292.00071659582</v>
+        <v>739.5981082931316</v>
       </c>
       <c r="C23" t="n">
-        <v>2114.594364319349</v>
+        <v>739.5981082931316</v>
       </c>
       <c r="D23" t="n">
-        <v>1754.387563557128</v>
+        <v>379.3913075309111</v>
       </c>
       <c r="E23" t="n">
-        <v>1367.399648652797</v>
+        <v>379.3913075309111</v>
       </c>
       <c r="F23" t="n">
-        <v>955.9917057431599</v>
+        <v>379.3913075309111</v>
       </c>
       <c r="G23" t="n">
-        <v>538.2041103123792</v>
+        <v>379.3913075309111</v>
       </c>
       <c r="H23" t="n">
-        <v>209.5242347723812</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I23" t="n">
         <v>50.71143199091319</v>
@@ -6013,28 +6013,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R23" t="n">
-        <v>2471.287047559323</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S23" t="n">
-        <v>2292.00071659582</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="T23" t="n">
-        <v>2292.00071659582</v>
+        <v>2315.859550404841</v>
       </c>
       <c r="U23" t="n">
-        <v>2292.00071659582</v>
+        <v>2061.942217170138</v>
       </c>
       <c r="V23" t="n">
-        <v>2292.00071659582</v>
+        <v>1730.090478258502</v>
       </c>
       <c r="W23" t="n">
-        <v>2292.00071659582</v>
+        <v>1517.783443386698</v>
       </c>
       <c r="X23" t="n">
-        <v>2292.00071659582</v>
+        <v>1517.783443386698</v>
       </c>
       <c r="Y23" t="n">
-        <v>2292.00071659582</v>
+        <v>1127.190441617773</v>
       </c>
     </row>
     <row r="24">
@@ -6044,7 +6044,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>832.9084402786798</v>
+        <v>979.6320219500381</v>
       </c>
       <c r="C24" t="n">
         <v>806.8789068718552</v>
@@ -6068,52 +6068,52 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J24" t="n">
-        <v>50.71143199091319</v>
+        <v>120.4127199202217</v>
       </c>
       <c r="K24" t="n">
-        <v>296.4476481521845</v>
+        <v>366.1489360814929</v>
       </c>
       <c r="L24" t="n">
-        <v>687.7199234768461</v>
+        <v>757.4212114061545</v>
       </c>
       <c r="M24" t="n">
-        <v>1197.116407734492</v>
+        <v>1266.817695663801</v>
       </c>
       <c r="N24" t="n">
-        <v>1735.393833177324</v>
+        <v>1620.913172155677</v>
       </c>
       <c r="O24" t="n">
-        <v>2160.184497733399</v>
+        <v>2045.703836711752</v>
       </c>
       <c r="P24" t="n">
-        <v>2484.689915167484</v>
+        <v>2370.209254145837</v>
       </c>
       <c r="Q24" t="n">
         <v>2535.571599545659</v>
       </c>
       <c r="R24" t="n">
-        <v>2481.698134656769</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S24" t="n">
-        <v>2323.528421865784</v>
+        <v>2377.401886754675</v>
       </c>
       <c r="T24" t="n">
-        <v>2125.854233501242</v>
+        <v>2179.727698390133</v>
       </c>
       <c r="U24" t="n">
-        <v>1898.972060912078</v>
+        <v>1952.845525800969</v>
       </c>
       <c r="V24" t="n">
-        <v>1664.720817437679</v>
+        <v>1718.59428232657</v>
       </c>
       <c r="W24" t="n">
-        <v>1412.206325771012</v>
+        <v>1558.92990744237</v>
       </c>
       <c r="X24" t="n">
-        <v>1205.67942717659</v>
+        <v>1352.403008847948</v>
       </c>
       <c r="Y24" t="n">
-        <v>999.9509914002402</v>
+        <v>1146.674573071598</v>
       </c>
     </row>
     <row r="25">
@@ -6123,7 +6123,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>50.71143199091319</v>
+        <v>219.7382531335418</v>
       </c>
       <c r="C25" t="n">
         <v>50.71143199091319</v>
@@ -6183,16 +6183,16 @@
         <v>679.5420961591335</v>
       </c>
       <c r="V25" t="n">
-        <v>679.5420961591335</v>
+        <v>424.0508324551545</v>
       </c>
       <c r="W25" t="n">
-        <v>679.5420961591335</v>
+        <v>424.0508324551545</v>
       </c>
       <c r="X25" t="n">
-        <v>453.5724071004607</v>
+        <v>219.7382531335418</v>
       </c>
       <c r="Y25" t="n">
-        <v>232.6141506683716</v>
+        <v>219.7382531335418</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1139.207705612183</v>
+        <v>1242.344652915478</v>
       </c>
       <c r="C26" t="n">
-        <v>768.5156897748676</v>
+        <v>871.6526370781622</v>
       </c>
       <c r="D26" t="n">
-        <v>408.308889012647</v>
+        <v>511.4458363159416</v>
       </c>
       <c r="E26" t="n">
-        <v>408.308889012647</v>
+        <v>124.4579214116108</v>
       </c>
       <c r="F26" t="n">
-        <v>408.308889012647</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G26" t="n">
         <v>50.71143199091319</v>
@@ -6250,28 +6250,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R26" t="n">
-        <v>2471.287047559323</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S26" t="n">
-        <v>2292.00071659582</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="T26" t="n">
-        <v>2292.00071659582</v>
+        <v>2315.859550404841</v>
       </c>
       <c r="U26" t="n">
-        <v>2292.00071659582</v>
+        <v>2315.859550404841</v>
       </c>
       <c r="V26" t="n">
-        <v>2292.00071659582</v>
+        <v>1984.007811493205</v>
       </c>
       <c r="W26" t="n">
-        <v>2292.00071659582</v>
+        <v>1629.936986240119</v>
       </c>
       <c r="X26" t="n">
-        <v>1917.39304070575</v>
+        <v>1629.936986240119</v>
       </c>
       <c r="Y26" t="n">
-        <v>1526.800038936825</v>
+        <v>1629.936986240119</v>
       </c>
     </row>
     <row r="27">
@@ -6317,10 +6317,10 @@
         <v>1266.817695663801</v>
       </c>
       <c r="N27" t="n">
-        <v>1805.095121106633</v>
+        <v>1620.913172155677</v>
       </c>
       <c r="O27" t="n">
-        <v>2229.885785662707</v>
+        <v>2045.703836711752</v>
       </c>
       <c r="P27" t="n">
         <v>2370.209254145837</v>
@@ -6329,19 +6329,19 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R27" t="n">
-        <v>2481.698134656769</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S27" t="n">
-        <v>2470.252003537142</v>
+        <v>2377.401886754675</v>
       </c>
       <c r="T27" t="n">
-        <v>2272.5778151726</v>
+        <v>2179.727698390133</v>
       </c>
       <c r="U27" t="n">
-        <v>2045.695642583436</v>
+        <v>1952.845525800969</v>
       </c>
       <c r="V27" t="n">
-        <v>1811.444399109037</v>
+        <v>1718.59428232657</v>
       </c>
       <c r="W27" t="n">
         <v>1558.92990744237</v>
@@ -6360,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>50.71143199091319</v>
+        <v>199.170648327478</v>
       </c>
       <c r="C28" t="n">
-        <v>50.71143199091319</v>
+        <v>199.170648327478</v>
       </c>
       <c r="D28" t="n">
-        <v>50.71143199091319</v>
+        <v>199.170648327478</v>
       </c>
       <c r="E28" t="n">
         <v>50.71143199091319</v>
@@ -6408,28 +6408,28 @@
         <v>679.5420961591335</v>
       </c>
       <c r="R28" t="n">
-        <v>679.5420961591335</v>
+        <v>529.7646791178286</v>
       </c>
       <c r="S28" t="n">
-        <v>679.5420961591335</v>
+        <v>529.7646791178286</v>
       </c>
       <c r="T28" t="n">
-        <v>679.5420961591335</v>
+        <v>529.7646791178286</v>
       </c>
       <c r="U28" t="n">
-        <v>390.6311794045659</v>
+        <v>529.7646791178286</v>
       </c>
       <c r="V28" t="n">
-        <v>390.6311794045659</v>
+        <v>529.7646791178286</v>
       </c>
       <c r="W28" t="n">
-        <v>101.6487785081866</v>
+        <v>529.7646791178286</v>
       </c>
       <c r="X28" t="n">
-        <v>50.71143199091319</v>
+        <v>301.340073125597</v>
       </c>
       <c r="Y28" t="n">
-        <v>50.71143199091319</v>
+        <v>199.170648327478</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1132.448770055577</v>
+        <v>1168.59816349478</v>
       </c>
       <c r="C29" t="n">
-        <v>1132.448770055577</v>
+        <v>797.9061476574645</v>
       </c>
       <c r="D29" t="n">
-        <v>1132.448770055577</v>
+        <v>437.699346895244</v>
       </c>
       <c r="E29" t="n">
-        <v>1132.448770055577</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="F29" t="n">
-        <v>955.9917057431599</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G29" t="n">
-        <v>538.2041103123792</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H29" t="n">
-        <v>209.5242347723812</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I29" t="n">
         <v>50.71143199091319</v>
@@ -6493,22 +6493,22 @@
         <v>2292.00071659582</v>
       </c>
       <c r="T29" t="n">
-        <v>2072.288667455001</v>
+        <v>2242.113060984143</v>
       </c>
       <c r="U29" t="n">
-        <v>1818.371334220299</v>
+        <v>2242.113060984143</v>
       </c>
       <c r="V29" t="n">
-        <v>1486.519595308663</v>
+        <v>1910.261322072507</v>
       </c>
       <c r="W29" t="n">
-        <v>1132.448770055577</v>
+        <v>1556.190496819422</v>
       </c>
       <c r="X29" t="n">
-        <v>1132.448770055577</v>
+        <v>1556.190496819422</v>
       </c>
       <c r="Y29" t="n">
-        <v>1132.448770055577</v>
+        <v>1556.190496819422</v>
       </c>
     </row>
     <row r="30">
@@ -6554,13 +6554,13 @@
         <v>1266.817695663801</v>
       </c>
       <c r="N30" t="n">
-        <v>1805.095121106633</v>
+        <v>1620.913172155677</v>
       </c>
       <c r="O30" t="n">
-        <v>2229.885785662707</v>
+        <v>2045.703836711752</v>
       </c>
       <c r="P30" t="n">
-        <v>2535.571599545659</v>
+        <v>2370.209254145837</v>
       </c>
       <c r="Q30" t="n">
         <v>2535.571599545659</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>370.2489263805311</v>
+        <v>359.4732516520618</v>
       </c>
       <c r="C31" t="n">
-        <v>201.2221052379024</v>
+        <v>359.4732516520618</v>
       </c>
       <c r="D31" t="n">
-        <v>50.71143199091319</v>
+        <v>208.9625784050725</v>
       </c>
       <c r="E31" t="n">
-        <v>50.71143199091319</v>
+        <v>208.9625784050725</v>
       </c>
       <c r="F31" t="n">
-        <v>50.71143199091319</v>
+        <v>208.9625784050725</v>
       </c>
       <c r="G31" t="n">
-        <v>50.71143199091319</v>
+        <v>208.9625784050725</v>
       </c>
       <c r="H31" t="n">
         <v>50.71143199091319</v>
@@ -6648,25 +6648,25 @@
         <v>679.5420961591335</v>
       </c>
       <c r="S31" t="n">
-        <v>679.5420961591335</v>
+        <v>464.7698324521643</v>
       </c>
       <c r="T31" t="n">
-        <v>679.5420961591335</v>
+        <v>464.7698324521643</v>
       </c>
       <c r="U31" t="n">
-        <v>679.5420961591335</v>
+        <v>464.7698324521643</v>
       </c>
       <c r="V31" t="n">
-        <v>679.5420961591335</v>
+        <v>464.7698324521643</v>
       </c>
       <c r="W31" t="n">
-        <v>679.5420961591335</v>
+        <v>359.4732516520618</v>
       </c>
       <c r="X31" t="n">
-        <v>679.5420961591335</v>
+        <v>359.4732516520618</v>
       </c>
       <c r="Y31" t="n">
-        <v>552.1516450579895</v>
+        <v>359.4732516520618</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1757.386264452093</v>
+        <v>437.699346895244</v>
       </c>
       <c r="C32" t="n">
-        <v>1386.694248614777</v>
+        <v>437.699346895244</v>
       </c>
       <c r="D32" t="n">
-        <v>1026.487447852556</v>
+        <v>437.699346895244</v>
       </c>
       <c r="E32" t="n">
-        <v>639.4995329482254</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="F32" t="n">
-        <v>228.0915900385881</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G32" t="n">
         <v>50.71143199091319</v>
@@ -6700,7 +6700,7 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J32" t="n">
-        <v>154.6737472370293</v>
+        <v>154.6737472370294</v>
       </c>
       <c r="K32" t="n">
         <v>432.762901072481</v>
@@ -6727,25 +6727,25 @@
         <v>2535.571599545659</v>
       </c>
       <c r="S32" t="n">
-        <v>2535.571599545659</v>
+        <v>2356.285268582156</v>
       </c>
       <c r="T32" t="n">
-        <v>2535.571599545659</v>
+        <v>2142.739921953663</v>
       </c>
       <c r="U32" t="n">
-        <v>2535.571599545659</v>
+        <v>1888.82258871896</v>
       </c>
       <c r="V32" t="n">
-        <v>2535.571599545659</v>
+        <v>1556.970849807325</v>
       </c>
       <c r="W32" t="n">
-        <v>2535.571599545659</v>
+        <v>1202.900024554239</v>
       </c>
       <c r="X32" t="n">
-        <v>2535.571599545659</v>
+        <v>828.2923486641691</v>
       </c>
       <c r="Y32" t="n">
-        <v>2144.978597776734</v>
+        <v>437.699346895244</v>
       </c>
     </row>
     <row r="33">
@@ -6761,16 +6761,16 @@
         <v>660.1553252004969</v>
       </c>
       <c r="D33" t="n">
-        <v>512.5670185594408</v>
+        <v>659.290600230799</v>
       </c>
       <c r="E33" t="n">
-        <v>354.9574895622956</v>
+        <v>501.6810712336537</v>
       </c>
       <c r="F33" t="n">
-        <v>210.0016995789124</v>
+        <v>356.7252812502705</v>
       </c>
       <c r="G33" t="n">
-        <v>114.9213613606679</v>
+        <v>220.0009863964076</v>
       </c>
       <c r="H33" t="n">
         <v>114.9213613606679</v>
@@ -6779,25 +6779,25 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J33" t="n">
-        <v>101.5931163690881</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K33" t="n">
-        <v>347.3293325303594</v>
+        <v>296.4476481521845</v>
       </c>
       <c r="L33" t="n">
-        <v>738.601607855021</v>
+        <v>687.7199234768461</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.998092112667</v>
+        <v>1197.116407734492</v>
       </c>
       <c r="N33" t="n">
-        <v>1786.275517555499</v>
+        <v>1620.913172155677</v>
       </c>
       <c r="O33" t="n">
-        <v>2211.066182111574</v>
+        <v>2045.703836711752</v>
       </c>
       <c r="P33" t="n">
-        <v>2535.571599545659</v>
+        <v>2370.209254145837</v>
       </c>
       <c r="Q33" t="n">
         <v>2535.571599545659</v>
@@ -6888,16 +6888,16 @@
         <v>679.5420961591335</v>
       </c>
       <c r="T34" t="n">
-        <v>679.5420961591335</v>
+        <v>527.1609521269813</v>
       </c>
       <c r="U34" t="n">
-        <v>679.5420961591335</v>
+        <v>527.1609521269813</v>
       </c>
       <c r="V34" t="n">
-        <v>679.5420961591335</v>
+        <v>271.6696884230023</v>
       </c>
       <c r="W34" t="n">
-        <v>500.0942944152339</v>
+        <v>271.6696884230023</v>
       </c>
       <c r="X34" t="n">
         <v>271.6696884230023</v>
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>981.1389784442391</v>
+        <v>1409.411788950115</v>
       </c>
       <c r="C35" t="n">
-        <v>981.1389784442391</v>
+        <v>1038.719773112799</v>
       </c>
       <c r="D35" t="n">
-        <v>620.9321776820185</v>
+        <v>1038.719773112799</v>
       </c>
       <c r="E35" t="n">
-        <v>620.9321776820185</v>
+        <v>1038.719773112799</v>
       </c>
       <c r="F35" t="n">
-        <v>209.5242347723812</v>
+        <v>627.3118302031619</v>
       </c>
       <c r="G35" t="n">
         <v>209.5242347723812</v>
@@ -6937,13 +6937,13 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J35" t="n">
-        <v>154.6737472370294</v>
+        <v>154.6737472370296</v>
       </c>
       <c r="K35" t="n">
-        <v>432.762901072481</v>
+        <v>432.7629010724813</v>
       </c>
       <c r="L35" t="n">
-        <v>829.7261648535821</v>
+        <v>829.7261648535825</v>
       </c>
       <c r="M35" t="n">
         <v>1286.636576300462</v>
@@ -6964,25 +6964,25 @@
         <v>2535.571599545659</v>
       </c>
       <c r="S35" t="n">
-        <v>2356.285268582156</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="T35" t="n">
-        <v>2136.573219441338</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="U35" t="n">
-        <v>1882.655886206635</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="V35" t="n">
-        <v>1759.324313537806</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="W35" t="n">
-        <v>1759.324313537806</v>
+        <v>2181.500774292574</v>
       </c>
       <c r="X35" t="n">
-        <v>1759.324313537806</v>
+        <v>1806.893098402504</v>
       </c>
       <c r="Y35" t="n">
-        <v>1368.73131176888</v>
+        <v>1797.004122274756</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>832.9084402786798</v>
+        <v>886.7819051675707</v>
       </c>
       <c r="C36" t="n">
-        <v>660.1553252004969</v>
+        <v>806.8789068718552</v>
       </c>
       <c r="D36" t="n">
-        <v>512.5670185594408</v>
+        <v>659.290600230799</v>
       </c>
       <c r="E36" t="n">
-        <v>354.9574895622956</v>
+        <v>501.6810712336537</v>
       </c>
       <c r="F36" t="n">
-        <v>210.0016995789124</v>
+        <v>356.7252812502705</v>
       </c>
       <c r="G36" t="n">
-        <v>73.27740472504951</v>
+        <v>220.0009863964076</v>
       </c>
       <c r="H36" t="n">
-        <v>50.71143199091319</v>
+        <v>114.9213613606679</v>
       </c>
       <c r="I36" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J36" t="n">
-        <v>50.71143199091319</v>
+        <v>120.4127199202217</v>
       </c>
       <c r="K36" t="n">
-        <v>296.4476481521845</v>
+        <v>366.1489360814929</v>
       </c>
       <c r="L36" t="n">
-        <v>687.7199234768461</v>
+        <v>757.4212114061545</v>
       </c>
       <c r="M36" t="n">
-        <v>1197.116407734492</v>
+        <v>1266.817695663801</v>
       </c>
       <c r="N36" t="n">
-        <v>1735.393833177324</v>
+        <v>1620.913172155677</v>
       </c>
       <c r="O36" t="n">
-        <v>2160.184497733399</v>
+        <v>2045.703836711752</v>
       </c>
       <c r="P36" t="n">
-        <v>2484.689915167484</v>
+        <v>2370.209254145837</v>
       </c>
       <c r="Q36" t="n">
         <v>2535.571599545659</v>
       </c>
       <c r="R36" t="n">
-        <v>2481.698134656769</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S36" t="n">
-        <v>2323.528421865784</v>
+        <v>2377.401886754675</v>
       </c>
       <c r="T36" t="n">
-        <v>2125.854233501242</v>
+        <v>2179.727698390133</v>
       </c>
       <c r="U36" t="n">
-        <v>1898.972060912078</v>
+        <v>1952.845525800969</v>
       </c>
       <c r="V36" t="n">
-        <v>1664.720817437679</v>
+        <v>1718.59428232657</v>
       </c>
       <c r="W36" t="n">
-        <v>1412.206325771012</v>
+        <v>1466.079790659903</v>
       </c>
       <c r="X36" t="n">
-        <v>1205.67942717659</v>
+        <v>1259.552892065481</v>
       </c>
       <c r="Y36" t="n">
-        <v>999.9509914002402</v>
+        <v>1053.824456289131</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1906.740935377439</v>
+        <v>390.5596952627542</v>
       </c>
       <c r="C37" t="n">
-        <v>1906.740935377439</v>
+        <v>390.5596952627542</v>
       </c>
       <c r="D37" t="n">
-        <v>1906.740935377439</v>
+        <v>240.0490220157649</v>
       </c>
       <c r="E37" t="n">
-        <v>1906.740935377439</v>
+        <v>91.58980567920011</v>
       </c>
       <c r="F37" t="n">
-        <v>1906.740935377439</v>
+        <v>91.58980567920011</v>
       </c>
       <c r="G37" t="n">
-        <v>1906.740935377439</v>
+        <v>91.58980567920011</v>
       </c>
       <c r="H37" t="n">
-        <v>1906.740935377439</v>
+        <v>91.58980567920011</v>
       </c>
       <c r="I37" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J37" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K37" t="n">
-        <v>1956.351184640836</v>
+        <v>100.3216812543103</v>
       </c>
       <c r="L37" t="n">
-        <v>2075.638838623408</v>
+        <v>219.6093352368815</v>
       </c>
       <c r="M37" t="n">
-        <v>2212.003844007148</v>
+        <v>355.9743406206215</v>
       </c>
       <c r="N37" t="n">
-        <v>2350.267656248476</v>
+        <v>494.2381528619504</v>
       </c>
       <c r="O37" t="n">
-        <v>2462.640068944411</v>
+        <v>606.6105655578849</v>
       </c>
       <c r="P37" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="Q37" t="n">
-        <v>2502.243095973062</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R37" t="n">
-        <v>2352.465678931757</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S37" t="n">
-        <v>2137.693415224788</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T37" t="n">
-        <v>1909.464917236715</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="U37" t="n">
-        <v>1906.740935377439</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="V37" t="n">
-        <v>1906.740935377439</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="W37" t="n">
-        <v>1906.740935377439</v>
+        <v>390.5596952627542</v>
       </c>
       <c r="X37" t="n">
-        <v>1906.740935377439</v>
+        <v>390.5596952627542</v>
       </c>
       <c r="Y37" t="n">
-        <v>1906.740935377439</v>
+        <v>390.5596952627542</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>855.4869423260247</v>
+        <v>1727.606449415018</v>
       </c>
       <c r="C38" t="n">
-        <v>855.4869423260247</v>
+        <v>1727.606449415018</v>
       </c>
       <c r="D38" t="n">
-        <v>855.4869423260247</v>
+        <v>1367.399648652797</v>
       </c>
       <c r="E38" t="n">
-        <v>468.4990274216939</v>
+        <v>1367.399648652797</v>
       </c>
       <c r="F38" t="n">
-        <v>468.4990274216939</v>
+        <v>955.9917057431599</v>
       </c>
       <c r="G38" t="n">
-        <v>50.71143199091319</v>
+        <v>538.2041103123792</v>
       </c>
       <c r="H38" t="n">
-        <v>50.71143199091319</v>
+        <v>209.5242347723812</v>
       </c>
       <c r="I38" t="n">
         <v>50.71143199091319</v>
@@ -7180,7 +7180,7 @@
         <v>432.7629010724813</v>
       </c>
       <c r="L38" t="n">
-        <v>829.7261648535825</v>
+        <v>829.7261648535823</v>
       </c>
       <c r="M38" t="n">
         <v>1286.636576300462</v>
@@ -7198,28 +7198,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R38" t="n">
-        <v>2471.287047559323</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S38" t="n">
-        <v>2471.287047559323</v>
+        <v>2356.285268582156</v>
       </c>
       <c r="T38" t="n">
-        <v>2251.574998418504</v>
+        <v>2136.573219441338</v>
       </c>
       <c r="U38" t="n">
-        <v>1997.657665183802</v>
+        <v>1882.655886206635</v>
       </c>
       <c r="V38" t="n">
-        <v>1665.805926272166</v>
+        <v>1882.655886206635</v>
       </c>
       <c r="W38" t="n">
-        <v>1311.735101019081</v>
+        <v>1882.655886206635</v>
       </c>
       <c r="X38" t="n">
-        <v>1246.07994409495</v>
+        <v>1727.606449415018</v>
       </c>
       <c r="Y38" t="n">
-        <v>855.4869423260247</v>
+        <v>1727.606449415018</v>
       </c>
     </row>
     <row r="39">
@@ -7229,13 +7229,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>979.6320219500381</v>
+        <v>886.7819051675707</v>
       </c>
       <c r="C39" t="n">
-        <v>806.8789068718552</v>
+        <v>714.0287900893879</v>
       </c>
       <c r="D39" t="n">
-        <v>659.290600230799</v>
+        <v>566.4404834483319</v>
       </c>
       <c r="E39" t="n">
         <v>501.6810712336537</v>
@@ -7253,52 +7253,52 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J39" t="n">
-        <v>50.71143199091319</v>
+        <v>120.4127199202217</v>
       </c>
       <c r="K39" t="n">
-        <v>296.4476481521845</v>
+        <v>366.1489360814929</v>
       </c>
       <c r="L39" t="n">
-        <v>687.7199234768461</v>
+        <v>757.4212114061545</v>
       </c>
       <c r="M39" t="n">
-        <v>1197.116407734492</v>
+        <v>1266.817695663801</v>
       </c>
       <c r="N39" t="n">
-        <v>1735.393833177324</v>
+        <v>1620.913172155677</v>
       </c>
       <c r="O39" t="n">
-        <v>2160.184497733399</v>
+        <v>2045.703836711752</v>
       </c>
       <c r="P39" t="n">
-        <v>2484.689915167484</v>
+        <v>2370.209254145837</v>
       </c>
       <c r="Q39" t="n">
         <v>2535.571599545659</v>
       </c>
       <c r="R39" t="n">
-        <v>2481.698134656769</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S39" t="n">
-        <v>2470.252003537142</v>
+        <v>2377.401886754675</v>
       </c>
       <c r="T39" t="n">
-        <v>2272.5778151726</v>
+        <v>2179.727698390133</v>
       </c>
       <c r="U39" t="n">
-        <v>2045.695642583436</v>
+        <v>1952.845525800969</v>
       </c>
       <c r="V39" t="n">
-        <v>1811.444399109037</v>
+        <v>1718.59428232657</v>
       </c>
       <c r="W39" t="n">
-        <v>1558.92990744237</v>
+        <v>1466.079790659903</v>
       </c>
       <c r="X39" t="n">
-        <v>1352.403008847948</v>
+        <v>1259.552892065481</v>
       </c>
       <c r="Y39" t="n">
-        <v>1146.674573071598</v>
+        <v>1053.824456289131</v>
       </c>
     </row>
     <row r="40">
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>390.5596952627542</v>
+        <v>219.7382531335418</v>
       </c>
       <c r="C40" t="n">
-        <v>390.5596952627542</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="D40" t="n">
-        <v>390.5596952627542</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="E40" t="n">
-        <v>367.3681245152936</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="F40" t="n">
-        <v>219.7327493538749</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G40" t="n">
         <v>50.71143199091319</v>
@@ -7359,25 +7359,25 @@
         <v>679.5420961591335</v>
       </c>
       <c r="S40" t="n">
-        <v>679.5420961591335</v>
+        <v>464.7698324521643</v>
       </c>
       <c r="T40" t="n">
-        <v>679.5420961591335</v>
+        <v>464.7698324521643</v>
       </c>
       <c r="U40" t="n">
-        <v>679.5420961591335</v>
+        <v>464.7698324521643</v>
       </c>
       <c r="V40" t="n">
-        <v>679.5420961591335</v>
+        <v>464.7698324521643</v>
       </c>
       <c r="W40" t="n">
-        <v>390.5596952627542</v>
+        <v>464.7698324521643</v>
       </c>
       <c r="X40" t="n">
-        <v>390.5596952627542</v>
+        <v>236.3452264599327</v>
       </c>
       <c r="Y40" t="n">
-        <v>390.5596952627542</v>
+        <v>219.7382531335418</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>822.326175662771</v>
+        <v>1168.59816349478</v>
       </c>
       <c r="C41" t="n">
-        <v>822.326175662771</v>
+        <v>797.9061476574645</v>
       </c>
       <c r="D41" t="n">
-        <v>462.1193749005504</v>
+        <v>437.6993468952439</v>
       </c>
       <c r="E41" t="n">
-        <v>462.1193749005504</v>
+        <v>50.71143199091311</v>
       </c>
       <c r="F41" t="n">
-        <v>50.71143199091319</v>
+        <v>50.71143199091311</v>
       </c>
       <c r="G41" t="n">
-        <v>50.71143199091319</v>
+        <v>50.71143199091311</v>
       </c>
       <c r="H41" t="n">
-        <v>50.71143199091319</v>
+        <v>50.71143199091311</v>
       </c>
       <c r="I41" t="n">
-        <v>50.71143199091319</v>
+        <v>50.71143199091311</v>
       </c>
       <c r="J41" t="n">
-        <v>154.6737472370296</v>
+        <v>154.6737472370293</v>
       </c>
       <c r="K41" t="n">
-        <v>432.7629010724813</v>
+        <v>432.7629010724809</v>
       </c>
       <c r="L41" t="n">
-        <v>829.7261648535823</v>
+        <v>829.726164853582</v>
       </c>
       <c r="M41" t="n">
         <v>1286.636576300462</v>
       </c>
       <c r="N41" t="n">
-        <v>1735.423100897411</v>
+        <v>1735.42310089741</v>
       </c>
       <c r="O41" t="n">
         <v>2113.071138623965</v>
@@ -7438,25 +7438,25 @@
         <v>2535.571599545659</v>
       </c>
       <c r="S41" t="n">
-        <v>2535.571599545659</v>
+        <v>2361.671618106579</v>
       </c>
       <c r="T41" t="n">
-        <v>2535.571599545659</v>
+        <v>2141.95956896576</v>
       </c>
       <c r="U41" t="n">
-        <v>2535.571599545659</v>
+        <v>1888.042235731057</v>
       </c>
       <c r="V41" t="n">
-        <v>2203.719860634023</v>
+        <v>1556.190496819422</v>
       </c>
       <c r="W41" t="n">
-        <v>1849.649035380938</v>
+        <v>1556.190496819422</v>
       </c>
       <c r="X41" t="n">
-        <v>1475.041359490868</v>
+        <v>1556.190496819422</v>
       </c>
       <c r="Y41" t="n">
-        <v>1209.918508987412</v>
+        <v>1556.190496819422</v>
       </c>
     </row>
     <row r="42">
@@ -7490,40 +7490,40 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J42" t="n">
-        <v>50.71143199091319</v>
+        <v>120.4127199202217</v>
       </c>
       <c r="K42" t="n">
-        <v>296.4476481521845</v>
+        <v>366.1489360814929</v>
       </c>
       <c r="L42" t="n">
-        <v>687.7199234768461</v>
+        <v>757.4212114061545</v>
       </c>
       <c r="M42" t="n">
-        <v>1197.116407734492</v>
+        <v>1266.817695663801</v>
       </c>
       <c r="N42" t="n">
-        <v>1735.393833177324</v>
+        <v>1620.913172155677</v>
       </c>
       <c r="O42" t="n">
-        <v>2160.184497733399</v>
+        <v>2045.703836711752</v>
       </c>
       <c r="P42" t="n">
-        <v>2484.689915167484</v>
+        <v>2370.209254145837</v>
       </c>
       <c r="Q42" t="n">
         <v>2535.571599545659</v>
       </c>
       <c r="R42" t="n">
-        <v>2535.571599545659</v>
+        <v>2481.698134656769</v>
       </c>
       <c r="S42" t="n">
-        <v>2470.252003537142</v>
+        <v>2323.528421865784</v>
       </c>
       <c r="T42" t="n">
-        <v>2272.5778151726</v>
+        <v>2125.854233501242</v>
       </c>
       <c r="U42" t="n">
-        <v>2045.695642583436</v>
+        <v>1898.972060912078</v>
       </c>
       <c r="V42" t="n">
         <v>1811.444399109037</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2422.212753959597</v>
+        <v>201.2221052379024</v>
       </c>
       <c r="C43" t="n">
-        <v>2422.212753959597</v>
+        <v>201.2221052379024</v>
       </c>
       <c r="D43" t="n">
-        <v>2422.212753959597</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="E43" t="n">
-        <v>2422.212753959597</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="F43" t="n">
-        <v>2422.212753959597</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G43" t="n">
-        <v>2253.191436596635</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H43" t="n">
-        <v>2094.940290182476</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I43" t="n">
-        <v>1956.59343411978</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J43" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K43" t="n">
-        <v>1956.351184640836</v>
+        <v>100.3216812543103</v>
       </c>
       <c r="L43" t="n">
-        <v>2075.638838623408</v>
+        <v>219.6093352368815</v>
       </c>
       <c r="M43" t="n">
-        <v>2212.003844007148</v>
+        <v>355.9743406206215</v>
       </c>
       <c r="N43" t="n">
-        <v>2350.267656248476</v>
+        <v>494.2381528619504</v>
       </c>
       <c r="O43" t="n">
-        <v>2462.640068944411</v>
+        <v>606.6105655578849</v>
       </c>
       <c r="P43" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="Q43" t="n">
-        <v>2502.243095973062</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R43" t="n">
-        <v>2422.212753959597</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S43" t="n">
-        <v>2422.212753959597</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T43" t="n">
-        <v>2422.212753959597</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="U43" t="n">
-        <v>2422.212753959597</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="V43" t="n">
-        <v>2422.212753959597</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="W43" t="n">
-        <v>2422.212753959597</v>
+        <v>390.5596952627542</v>
       </c>
       <c r="X43" t="n">
-        <v>2422.212753959597</v>
+        <v>201.2221052379024</v>
       </c>
       <c r="Y43" t="n">
-        <v>2422.212753959597</v>
+        <v>201.2221052379024</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1266.894885235662</v>
+        <v>1754.387563557128</v>
       </c>
       <c r="C44" t="n">
-        <v>1266.894885235662</v>
+        <v>1754.387563557128</v>
       </c>
       <c r="D44" t="n">
-        <v>1266.894885235662</v>
+        <v>1754.387563557128</v>
       </c>
       <c r="E44" t="n">
-        <v>879.9069703313312</v>
+        <v>1367.399648652797</v>
       </c>
       <c r="F44" t="n">
-        <v>468.4990274216939</v>
+        <v>955.9917057431599</v>
       </c>
       <c r="G44" t="n">
-        <v>50.71143199091319</v>
+        <v>538.2041103123792</v>
       </c>
       <c r="H44" t="n">
-        <v>50.71143199091319</v>
+        <v>209.5242347723812</v>
       </c>
       <c r="I44" t="n">
         <v>50.71143199091319</v>
@@ -7651,16 +7651,16 @@
         <v>154.6737472370293</v>
       </c>
       <c r="K44" t="n">
-        <v>432.762901072481</v>
+        <v>432.7629010724809</v>
       </c>
       <c r="L44" t="n">
-        <v>829.7261648535821</v>
+        <v>829.726164853582</v>
       </c>
       <c r="M44" t="n">
         <v>1286.636576300462</v>
       </c>
       <c r="N44" t="n">
-        <v>1735.423100897411</v>
+        <v>1735.42310089741</v>
       </c>
       <c r="O44" t="n">
         <v>2113.071138623965</v>
@@ -7672,28 +7672,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R44" t="n">
-        <v>2535.571599545659</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="S44" t="n">
-        <v>2535.571599545659</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="T44" t="n">
-        <v>2315.859550404841</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="U44" t="n">
-        <v>2061.942217170138</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="V44" t="n">
-        <v>1730.090478258502</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="W44" t="n">
-        <v>1376.019653005417</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="X44" t="n">
-        <v>1266.894885235662</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="Y44" t="n">
-        <v>1266.894885235662</v>
+        <v>2141.979896881769</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>832.9084402786798</v>
+        <v>979.6320219500381</v>
       </c>
       <c r="C45" t="n">
-        <v>660.1553252004969</v>
+        <v>806.8789068718552</v>
       </c>
       <c r="D45" t="n">
-        <v>512.5670185594408</v>
+        <v>659.290600230799</v>
       </c>
       <c r="E45" t="n">
-        <v>354.9574895622956</v>
+        <v>501.6810712336537</v>
       </c>
       <c r="F45" t="n">
-        <v>220.0009863964076</v>
+        <v>356.7252812502705</v>
       </c>
       <c r="G45" t="n">
         <v>220.0009863964076</v>
@@ -7727,25 +7727,25 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J45" t="n">
-        <v>101.5931163690881</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K45" t="n">
-        <v>347.3293325303594</v>
+        <v>296.4476481521845</v>
       </c>
       <c r="L45" t="n">
-        <v>738.601607855021</v>
+        <v>573.239262455199</v>
       </c>
       <c r="M45" t="n">
-        <v>1247.998092112667</v>
+        <v>1082.635746712845</v>
       </c>
       <c r="N45" t="n">
-        <v>1786.275517555499</v>
+        <v>1620.913172155677</v>
       </c>
       <c r="O45" t="n">
-        <v>2211.066182111574</v>
+        <v>2045.703836711752</v>
       </c>
       <c r="P45" t="n">
-        <v>2535.571599545659</v>
+        <v>2370.209254145837</v>
       </c>
       <c r="Q45" t="n">
         <v>2535.571599545659</v>
@@ -7766,13 +7766,13 @@
         <v>1664.720817437679</v>
       </c>
       <c r="W45" t="n">
-        <v>1412.206325771012</v>
+        <v>1558.92990744237</v>
       </c>
       <c r="X45" t="n">
-        <v>1205.67942717659</v>
+        <v>1352.403008847948</v>
       </c>
       <c r="Y45" t="n">
-        <v>999.9509914002402</v>
+        <v>1146.674573071598</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>424.0508324551545</v>
+        <v>358.0851091962368</v>
       </c>
       <c r="C46" t="n">
-        <v>424.0508324551545</v>
+        <v>189.0582880536082</v>
       </c>
       <c r="D46" t="n">
-        <v>424.0508324551545</v>
+        <v>189.0582880536082</v>
       </c>
       <c r="E46" t="n">
-        <v>424.0508324551545</v>
+        <v>189.0582880536082</v>
       </c>
       <c r="F46" t="n">
-        <v>424.0508324551545</v>
+        <v>189.0582880536082</v>
       </c>
       <c r="G46" t="n">
-        <v>255.0295150921928</v>
+        <v>189.0582880536082</v>
       </c>
       <c r="H46" t="n">
-        <v>96.7783686780335</v>
+        <v>189.0582880536082</v>
       </c>
       <c r="I46" t="n">
         <v>50.71143199091319</v>
@@ -7836,22 +7836,22 @@
         <v>679.5420961591335</v>
       </c>
       <c r="T46" t="n">
-        <v>679.5420961591335</v>
+        <v>646.9960259508044</v>
       </c>
       <c r="U46" t="n">
-        <v>679.5420961591335</v>
+        <v>358.0851091962368</v>
       </c>
       <c r="V46" t="n">
-        <v>424.0508324551545</v>
+        <v>358.0851091962368</v>
       </c>
       <c r="W46" t="n">
-        <v>424.0508324551545</v>
+        <v>358.0851091962368</v>
       </c>
       <c r="X46" t="n">
-        <v>424.0508324551545</v>
+        <v>358.0851091962368</v>
       </c>
       <c r="Y46" t="n">
-        <v>424.0508324551545</v>
+        <v>358.0851091962368</v>
       </c>
     </row>
   </sheetData>
@@ -8066,19 +8066,19 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M3" t="n">
-        <v>358.5418165849065</v>
+        <v>206.5344255155917</v>
       </c>
       <c r="N3" t="n">
         <v>402.3419766228525</v>
       </c>
       <c r="O3" t="n">
-        <v>139.0313383333333</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P3" t="n">
-        <v>331.2012793855346</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q3" t="n">
-        <v>136.482229733871</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R3" t="n">
         <v>47.34253660377365</v>
@@ -8236,7 +8236,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q5" t="n">
-        <v>220.807590286301</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R5" t="n">
         <v>68.34507666790174</v>
@@ -8294,25 +8294,25 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J6" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K6" t="n">
-        <v>275.0438464930818</v>
+        <v>134.395403</v>
       </c>
       <c r="L6" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M6" t="n">
-        <v>138.5806830739679</v>
+        <v>412.8644904155703</v>
       </c>
       <c r="N6" t="n">
-        <v>344.2496456653007</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O6" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P6" t="n">
-        <v>331.2012793855346</v>
+        <v>146.9415753334873</v>
       </c>
       <c r="Q6" t="n">
         <v>136.482229733871</v>
@@ -8534,16 +8534,16 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K9" t="n">
-        <v>134.953366024118</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L9" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M9" t="n">
-        <v>138.5806830739679</v>
+        <v>272.7740099466066</v>
       </c>
       <c r="N9" t="n">
-        <v>402.3419766228525</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O9" t="n">
         <v>409.6168120477987</v>
@@ -8768,7 +8768,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J12" t="n">
-        <v>60.72933541128934</v>
+        <v>60.72933541128936</v>
       </c>
       <c r="K12" t="n">
         <v>275.0438464930818</v>
@@ -8783,13 +8783,13 @@
         <v>498.5160693172957</v>
       </c>
       <c r="O12" t="n">
-        <v>409.6168120477987</v>
+        <v>293.9797807128016</v>
       </c>
       <c r="P12" t="n">
         <v>331.2012793855346</v>
       </c>
       <c r="Q12" t="n">
-        <v>102.8433479102859</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R12" t="n">
         <v>47.34253660377365</v>
@@ -9014,10 +9014,10 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M15" t="n">
-        <v>465.3235657432994</v>
+        <v>484.3332662999999</v>
       </c>
       <c r="N15" t="n">
-        <v>498.5160693172957</v>
+        <v>312.4736966395628</v>
       </c>
       <c r="O15" t="n">
         <v>409.6168120477987</v>
@@ -9026,7 +9026,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q15" t="n">
-        <v>51.44770712425046</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R15" t="n">
         <v>47.34253660377365</v>
@@ -9254,13 +9254,13 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N18" t="n">
-        <v>312.4736966395628</v>
+        <v>498.5160693172957</v>
       </c>
       <c r="O18" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P18" t="n">
-        <v>331.2012793855346</v>
+        <v>145.1589067078019</v>
       </c>
       <c r="Q18" t="n">
         <v>218.4803792452831</v>
@@ -9479,7 +9479,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J21" t="n">
-        <v>60.72933541128936</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K21" t="n">
         <v>275.0438464930818</v>
@@ -9497,10 +9497,10 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P21" t="n">
-        <v>331.2012793855346</v>
+        <v>145.1589067078019</v>
       </c>
       <c r="Q21" t="n">
-        <v>102.843347910286</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R21" t="n">
         <v>47.34253660377365</v>
@@ -9716,7 +9716,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J24" t="n">
-        <v>60.72933541128936</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K24" t="n">
         <v>275.0438464930818</v>
@@ -9728,7 +9728,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N24" t="n">
-        <v>498.5160693172957</v>
+        <v>312.4736966395628</v>
       </c>
       <c r="O24" t="n">
         <v>409.6168120477987</v>
@@ -9737,7 +9737,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q24" t="n">
-        <v>102.843347910286</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R24" t="n">
         <v>47.34253660377365</v>
@@ -9965,13 +9965,13 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N27" t="n">
-        <v>498.5160693172957</v>
+        <v>312.4736966395628</v>
       </c>
       <c r="O27" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P27" t="n">
-        <v>145.1589067078019</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q27" t="n">
         <v>218.4803792452831</v>
@@ -10202,16 +10202,16 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N30" t="n">
-        <v>498.5160693172957</v>
+        <v>312.4736966395628</v>
       </c>
       <c r="O30" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P30" t="n">
-        <v>312.1915788288343</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q30" t="n">
-        <v>51.44770712425047</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R30" t="n">
         <v>47.34253660377365</v>
@@ -10427,7 +10427,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J33" t="n">
-        <v>112.1249761973247</v>
+        <v>60.72933541128936</v>
       </c>
       <c r="K33" t="n">
         <v>275.0438464930818</v>
@@ -10439,7 +10439,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N33" t="n">
-        <v>498.5160693172957</v>
+        <v>382.8790379822985</v>
       </c>
       <c r="O33" t="n">
         <v>409.6168120477987</v>
@@ -10448,7 +10448,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q33" t="n">
-        <v>51.44770712425047</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R33" t="n">
         <v>47.34253660377365</v>
@@ -10664,7 +10664,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J36" t="n">
-        <v>60.72933541128936</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K36" t="n">
         <v>275.0438464930818</v>
@@ -10676,7 +10676,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N36" t="n">
-        <v>498.5160693172957</v>
+        <v>312.4736966395628</v>
       </c>
       <c r="O36" t="n">
         <v>409.6168120477987</v>
@@ -10685,7 +10685,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q36" t="n">
-        <v>102.843347910286</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R36" t="n">
         <v>47.34253660377365</v>
@@ -10901,7 +10901,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J39" t="n">
-        <v>60.72933541128936</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K39" t="n">
         <v>275.0438464930818</v>
@@ -10913,7 +10913,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N39" t="n">
-        <v>498.5160693172957</v>
+        <v>312.4736966395628</v>
       </c>
       <c r="O39" t="n">
         <v>409.6168120477987</v>
@@ -10922,7 +10922,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q39" t="n">
-        <v>102.843347910286</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R39" t="n">
         <v>47.34253660377365</v>
@@ -11138,7 +11138,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J42" t="n">
-        <v>60.72933541128936</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K42" t="n">
         <v>275.0438464930818</v>
@@ -11150,7 +11150,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N42" t="n">
-        <v>498.5160693172957</v>
+        <v>312.4736966395628</v>
       </c>
       <c r="O42" t="n">
         <v>409.6168120477987</v>
@@ -11159,7 +11159,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q42" t="n">
-        <v>102.843347910286</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R42" t="n">
         <v>47.34253660377365</v>
@@ -11299,7 +11299,7 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1112290740114</v>
+        <v>337.1112290740113</v>
       </c>
       <c r="L44" t="n">
         <v>434.3676631324684</v>
@@ -11375,13 +11375,13 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J45" t="n">
-        <v>112.1249761973247</v>
+        <v>60.72933541128936</v>
       </c>
       <c r="K45" t="n">
         <v>275.0438464930818</v>
       </c>
       <c r="L45" t="n">
-        <v>385.6739591155975</v>
+        <v>270.0369277806005</v>
       </c>
       <c r="M45" t="n">
         <v>484.3332662999999</v>
@@ -11396,7 +11396,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q45" t="n">
-        <v>51.44770712425047</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R45" t="n">
         <v>47.34253660377365</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>413.6097194764729</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>157.2246747536534</v>
@@ -23305,25 +23305,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>49.70334503307585</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.3781599023558</v>
       </c>
       <c r="V11" t="n">
-        <v>328.5332215225193</v>
+        <v>190.9836308341809</v>
       </c>
       <c r="W11" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y11" t="n">
         <v>386.6870717512358</v>
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>145.2563458546446</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -23390,7 +23390,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>145.2563458546447</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23418,16 +23418,16 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C13" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>149.0055665145194</v>
       </c>
       <c r="E13" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>146.1590214098045</v>
+        <v>64.06820091997713</v>
       </c>
       <c r="G13" t="n">
         <v>167.3311041893321</v>
@@ -23439,7 +23439,7 @@
         <v>136.9633875020681</v>
       </c>
       <c r="J13" t="n">
-        <v>49.3539737549178</v>
+        <v>49.35397375491781</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>32.99521853687121</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>148.2796428708918</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>212.6245410698995</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.9462130081922</v>
       </c>
       <c r="U13" t="n">
-        <v>283.3250655463385</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V13" t="n">
         <v>252.9363510669392</v>
@@ -23481,7 +23481,7 @@
         <v>286.0925768874155</v>
       </c>
       <c r="X13" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.7486738677682</v>
@@ -23497,16 +23497,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>333.93404279629</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>277.1220857085606</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23542,22 +23542,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>63.64170646647293</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S14" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.3781599023558</v>
       </c>
       <c r="V14" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>370.8615991311694</v>
@@ -23576,7 +23576,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>81.68851577858746</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -23588,13 +23588,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>41.22751706926216</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>104.0288287853823</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23676,7 +23676,7 @@
         <v>136.9633875020681</v>
       </c>
       <c r="J16" t="n">
-        <v>49.3539737549178</v>
+        <v>49.35397375491781</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,10 +23697,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>32.99521853687121</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>148.2796428708918</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,13 +23709,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>283.3250655463385</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V16" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W16" t="n">
-        <v>286.0925768874155</v>
+        <v>102.1209734389691</v>
       </c>
       <c r="X16" t="n">
         <v>226.1403599323093</v>
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E17" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G17" t="n">
-        <v>413.6097194764729</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>157.2246747536534</v>
@@ -23788,19 +23788,19 @@
         <v>217.5149286494106</v>
       </c>
       <c r="U17" t="n">
-        <v>21.18698920238893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W17" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>21.56621392247507</v>
       </c>
     </row>
     <row r="18">
@@ -23813,7 +23813,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>145.2563458546446</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -23858,10 +23858,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>53.33473024000174</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>91.92161561464282</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>180.0836914906838</v>
+        <v>99.09829403256188</v>
       </c>
       <c r="C19" t="n">
         <v>167.3365529312023</v>
@@ -23901,19 +23901,19 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G19" t="n">
-        <v>66.92898281647324</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>156.6686349500177</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>136.9633875020681</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>49.35397375491781</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,16 +23934,16 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>32.99521853687121</v>
       </c>
       <c r="R19" t="n">
-        <v>148.2796428708918</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>212.6245410698995</v>
       </c>
       <c r="T19" t="n">
-        <v>225.9462130081922</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.0218075870219</v>
@@ -23977,16 +23977,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>30.5906535838202</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>154.7407921512562</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24016,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S20" t="n">
         <v>177.493467653868</v>
       </c>
       <c r="T20" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.3781599023558</v>
       </c>
       <c r="V20" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>350.5301170005546</v>
       </c>
       <c r="X20" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24065,7 +24065,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>91.92161561464245</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>53.33473024000174</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -24116,7 +24116,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>145.2563458546445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24180,13 +24180,13 @@
         <v>212.6245410698995</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>108.1743369364441</v>
       </c>
       <c r="U22" t="n">
-        <v>142.3620141356152</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W22" t="n">
         <v>286.0925768874155</v>
@@ -24195,7 +24195,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>191.352806925236</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T23" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>350.5301170005546</v>
+        <v>140.3461524774686</v>
       </c>
       <c r="X23" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24287,7 +24287,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>145.2563458546446</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -24332,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>53.33473024000174</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -24347,7 +24347,7 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>91.92161561464249</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C25" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>149.0055665145194</v>
@@ -24423,16 +24423,16 @@
         <v>286.0218075870219</v>
       </c>
       <c r="V25" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.0925768874155</v>
       </c>
       <c r="X25" t="n">
-        <v>2.430367764223234</v>
+        <v>23.87090640391267</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="26">
@@ -24451,13 +24451,13 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>407.2938634805408</v>
+        <v>334.2848389540502</v>
       </c>
       <c r="G26" t="n">
-        <v>59.58823702495641</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H26" t="n">
         <v>325.3930767845979</v>
@@ -24490,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T26" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.3781599023558</v>
       </c>
       <c r="V26" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="27">
@@ -24569,10 +24569,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>53.33473024000174</v>
       </c>
       <c r="S27" t="n">
-        <v>145.2563458546447</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24584,7 +24584,7 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>91.92161561464249</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -24609,7 +24609,7 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E28" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>146.1590214098045</v>
@@ -24648,7 +24648,7 @@
         <v>32.99521853687121</v>
       </c>
       <c r="R28" t="n">
-        <v>148.2796428708918</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>212.6245410698995</v>
@@ -24657,19 +24657,19 @@
         <v>225.9462130081922</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V28" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X28" t="n">
-        <v>175.7123868802086</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.7486738677682</v>
+        <v>117.6009433176305</v>
       </c>
     </row>
     <row r="29">
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>232.6013698112475</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,10 +24733,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>168.1261495938503</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>167.3311041893321</v>
       </c>
       <c r="H31" t="n">
-        <v>156.6686349500177</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>136.9633875020681</v>
@@ -24888,7 +24888,7 @@
         <v>148.2796428708918</v>
       </c>
       <c r="S31" t="n">
-        <v>212.6245410698995</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>225.9462130081922</v>
@@ -24900,13 +24900,13 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W31" t="n">
-        <v>286.0925768874155</v>
+        <v>181.848961895314</v>
       </c>
       <c r="X31" t="n">
         <v>226.1403599323093</v>
       </c>
       <c r="Y31" t="n">
-        <v>92.63212727763569</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="32">
@@ -24916,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G32" t="n">
-        <v>238.0033630092748</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H32" t="n">
         <v>325.3930767845979</v>
@@ -24967,22 +24967,22 @@
         <v>63.64170646647294</v>
       </c>
       <c r="S32" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>217.5149286494106</v>
+        <v>6.105035487202514</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25001,7 +25001,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>145.2563458546446</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -25010,10 +25010,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>41.22751706926219</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>104.0288287853823</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -25128,19 +25128,19 @@
         <v>212.6245410698995</v>
       </c>
       <c r="T34" t="n">
-        <v>225.9462130081922</v>
+        <v>75.08888041636152</v>
       </c>
       <c r="U34" t="n">
         <v>286.0218075870219</v>
       </c>
       <c r="V34" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>108.4392531609549</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25156,10 +25156,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E35" t="n">
         <v>383.1180357552875</v>
@@ -25168,7 +25168,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>413.6097194764729</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>325.3930767845979</v>
@@ -25204,25 +25204,25 @@
         <v>63.64170646647294</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V35" t="n">
-        <v>206.4349645803784</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W35" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>376.8969853847657</v>
       </c>
     </row>
     <row r="36">
@@ -25235,7 +25235,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>91.92161561464263</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -25250,10 +25250,10 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>81.6885157785874</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>53.33473024000174</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -25317,10 +25317,10 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D37" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>146.1590214098045</v>
@@ -25332,7 +25332,7 @@
         <v>156.6686349500177</v>
       </c>
       <c r="I37" t="n">
-        <v>136.9633875020681</v>
+        <v>96.49379755066401</v>
       </c>
       <c r="J37" t="n">
         <v>49.35397375491781</v>
@@ -25356,25 +25356,25 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>32.99521853687121</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>148.2796428708918</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>212.6245410698995</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.9462130081922</v>
       </c>
       <c r="U37" t="n">
-        <v>283.3250655463385</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V37" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W37" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>226.1403599323093</v>
@@ -25396,22 +25396,22 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D38" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F38" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,10 +25438,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S38" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25450,16 +25450,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X38" t="n">
-        <v>305.8629937762802</v>
+        <v>217.3626567074684</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="39">
@@ -25478,7 +25478,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>91.92161561464246</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -25517,10 +25517,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>53.33473024000174</v>
       </c>
       <c r="S39" t="n">
-        <v>145.2563458546447</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25551,19 +25551,19 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C40" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>149.0055665145194</v>
       </c>
       <c r="E40" t="n">
-        <v>124.0149691332132</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.3311041893321</v>
       </c>
       <c r="H40" t="n">
         <v>156.6686349500177</v>
@@ -25599,7 +25599,7 @@
         <v>148.2796428708918</v>
       </c>
       <c r="S40" t="n">
-        <v>212.6245410698995</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>225.9462130081922</v>
@@ -25611,13 +25611,13 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X40" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.7486738677682</v>
+        <v>202.3077702746412</v>
       </c>
     </row>
     <row r="41">
@@ -25630,16 +25630,16 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G41" t="n">
         <v>413.6097194764729</v>
@@ -25678,25 +25678,25 @@
         <v>63.64170646647294</v>
       </c>
       <c r="S41" t="n">
-        <v>177.493467653868</v>
+        <v>5.332486029178398</v>
       </c>
       <c r="T41" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y41" t="n">
-        <v>124.2154497528148</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="42">
@@ -25754,10 +25754,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>53.33473024000174</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>91.92161561464282</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25766,7 +25766,7 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>145.2563458546444</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D43" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.9746241731992</v>
@@ -25800,16 +25800,16 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3311041893321</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>156.6686349500177</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>136.9633875020681</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>49.35397375491781</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,10 +25830,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>32.99521853687121</v>
       </c>
       <c r="R43" t="n">
-        <v>69.04960427756096</v>
+        <v>148.2796428708918</v>
       </c>
       <c r="S43" t="n">
         <v>212.6245410698995</v>
@@ -25848,10 +25848,10 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W43" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>226.1403599323093</v>
+        <v>38.69614580770605</v>
       </c>
       <c r="Y43" t="n">
         <v>218.7486738677682</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>366.9850956789426</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>63.64170646647294</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>177.493467653868</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X44" t="n">
-        <v>262.8280790391122</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.6870717512358</v>
+        <v>60.67299258045773</v>
       </c>
     </row>
     <row r="45">
@@ -25955,10 +25955,10 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>9.899293949320253</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>135.3570519053243</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -26006,7 +26006,7 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>145.2563458546444</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C46" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>149.0055665145194</v>
@@ -26037,13 +26037,13 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.3311041893321</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>156.6686349500177</v>
       </c>
       <c r="I46" t="n">
-        <v>91.35712018181896</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>49.35397375491781</v>
@@ -26076,13 +26076,13 @@
         <v>212.6245410698995</v>
       </c>
       <c r="T46" t="n">
-        <v>225.9462130081922</v>
+        <v>193.7256035019464</v>
       </c>
       <c r="U46" t="n">
-        <v>286.0218075870219</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W46" t="n">
         <v>286.0925768874155</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>842994.3476093273</v>
+        <v>842994.3476093272</v>
       </c>
     </row>
     <row r="3">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>571560.0399669331</v>
+        <v>571560.0399669333</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>571560.039966933</v>
+        <v>571560.0399669328</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>571560.0399669333</v>
+        <v>571560.0399669331</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>571560.0399669331</v>
+        <v>571560.0399669333</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>571560.0399669332</v>
+        <v>571560.0399669333</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>571560.039966933</v>
+        <v>571560.0399669331</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>571560.0399669332</v>
+        <v>571560.0399669331</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>571560.0399669328</v>
+        <v>571560.0399669332</v>
       </c>
     </row>
     <row r="16">
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>590091.5712458291</v>
+        <v>590091.5712458289</v>
       </c>
       <c r="C2" t="n">
-        <v>590091.571245829</v>
+        <v>590091.5712458289</v>
       </c>
       <c r="D2" t="n">
-        <v>590091.5712458289</v>
+        <v>590091.5712458293</v>
       </c>
       <c r="E2" t="n">
-        <v>397804.5666975181</v>
+        <v>397804.5666975182</v>
       </c>
       <c r="F2" t="n">
-        <v>397804.5666975182</v>
+        <v>397804.5666975184</v>
       </c>
       <c r="G2" t="n">
         <v>397804.5666975183</v>
       </c>
       <c r="H2" t="n">
-        <v>397804.5666975182</v>
+        <v>397804.5666975185</v>
       </c>
       <c r="I2" t="n">
-        <v>397804.5666975182</v>
+        <v>397804.5666975183</v>
       </c>
       <c r="J2" t="n">
         <v>397804.5666975182</v>
@@ -26346,16 +26346,16 @@
         <v>397804.5666975183</v>
       </c>
       <c r="M2" t="n">
+        <v>397804.5666975183</v>
+      </c>
+      <c r="N2" t="n">
+        <v>397804.5666975184</v>
+      </c>
+      <c r="O2" t="n">
+        <v>397804.5666975183</v>
+      </c>
+      <c r="P2" t="n">
         <v>397804.5666975182</v>
-      </c>
-      <c r="N2" t="n">
-        <v>397804.5666975182</v>
-      </c>
-      <c r="O2" t="n">
-        <v>397804.5666975182</v>
-      </c>
-      <c r="P2" t="n">
-        <v>397804.5666975183</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91918.81236773985</v>
+        <v>91918.81236773984</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>356189.4298866803</v>
+        <v>356189.4298866802</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>275803.0726782214</v>
+      </c>
+      <c r="C4" t="n">
         <v>275803.0726782215</v>
-      </c>
-      <c r="C4" t="n">
-        <v>275803.0726782214</v>
       </c>
       <c r="D4" t="n">
         <v>275803.0726782214</v>
@@ -26429,13 +26429,13 @@
         <v>9628.876256390869</v>
       </c>
       <c r="F4" t="n">
-        <v>9628.876256390868</v>
+        <v>9628.876256390869</v>
       </c>
       <c r="G4" t="n">
-        <v>9628.876256390869</v>
+        <v>9628.876256390871</v>
       </c>
       <c r="H4" t="n">
-        <v>9628.876256390869</v>
+        <v>9628.876256390871</v>
       </c>
       <c r="I4" t="n">
         <v>9628.876256390869</v>
@@ -26447,7 +26447,7 @@
         <v>9628.876256390869</v>
       </c>
       <c r="L4" t="n">
-        <v>9628.876256390869</v>
+        <v>9628.876256390868</v>
       </c>
       <c r="M4" t="n">
         <v>9628.876256390869</v>
@@ -26459,7 +26459,7 @@
         <v>9628.876256390869</v>
       </c>
       <c r="P4" t="n">
-        <v>9628.876256390869</v>
+        <v>9628.876256390868</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>172065.6307134983</v>
+        <v>172065.6307134982</v>
       </c>
       <c r="C6" t="n">
-        <v>263984.4430812381</v>
+        <v>263984.443081238</v>
       </c>
       <c r="D6" t="n">
-        <v>263984.443081238</v>
+        <v>263984.4430812385</v>
       </c>
       <c r="E6" t="n">
-        <v>-13306.00056122783</v>
+        <v>-19936.58692496256</v>
       </c>
       <c r="F6" t="n">
-        <v>342883.4293254525</v>
+        <v>336252.8429617179</v>
       </c>
       <c r="G6" t="n">
-        <v>342883.4293254526</v>
+        <v>336252.8429617177</v>
       </c>
       <c r="H6" t="n">
-        <v>342883.4293254525</v>
+        <v>336252.8429617179</v>
       </c>
       <c r="I6" t="n">
-        <v>342883.4293254525</v>
+        <v>336252.8429617178</v>
       </c>
       <c r="J6" t="n">
-        <v>271118.7168373662</v>
+        <v>264488.1304736314</v>
       </c>
       <c r="K6" t="n">
-        <v>342883.4293254527</v>
+        <v>336252.8429617177</v>
       </c>
       <c r="L6" t="n">
-        <v>342883.4293254527</v>
+        <v>336252.8429617178</v>
       </c>
       <c r="M6" t="n">
-        <v>253267.4050269151</v>
+        <v>246636.8186631803</v>
       </c>
       <c r="N6" t="n">
-        <v>342883.4293254525</v>
+        <v>336252.8429617179</v>
       </c>
       <c r="O6" t="n">
-        <v>342883.4293254525</v>
+        <v>336252.8429617178</v>
       </c>
       <c r="P6" t="n">
-        <v>342883.4293254527</v>
+        <v>336252.8429617177</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>309.7051744303111</v>
+        <v>309.705174430311</v>
       </c>
       <c r="F3" t="n">
-        <v>309.7051744303111</v>
+        <v>309.705174430311</v>
       </c>
       <c r="G3" t="n">
         <v>309.705174430311</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>309.7051744303111</v>
+        <v>309.705174430311</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>142.1272324849117</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C2" t="n">
         <v>366.9850956789426</v>
@@ -27390,7 +27390,7 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F2" t="n">
-        <v>133.0100561389384</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>140.5709580622284</v>
@@ -27399,10 +27399,10 @@
         <v>338.1439033881534</v>
       </c>
       <c r="I2" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27426,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>222.9651171964204</v>
@@ -27438,7 +27438,7 @@
         <v>251.4777635765444</v>
       </c>
       <c r="V2" t="n">
-        <v>328.5332215225193</v>
+        <v>99.2696522404745</v>
       </c>
       <c r="W2" t="n">
         <v>350.5301170005546</v>
@@ -27447,7 +27447,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y2" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="3">
@@ -27460,13 +27460,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>143.5062320835493</v>
@@ -27475,7 +27475,7 @@
         <v>136.0232102050423</v>
       </c>
       <c r="H3" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27505,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S3" t="n">
-        <v>106.0401032263864</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W3" t="n">
         <v>249.98934675</v>
       </c>
       <c r="X3" t="n">
-        <v>204.4616296084783</v>
+        <v>179.2018073029432</v>
       </c>
       <c r="Y3" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27554,7 +27554,7 @@
         <v>167.8895889301081</v>
       </c>
       <c r="H4" t="n">
-        <v>161.6340720089168</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>153.7585467974036</v>
@@ -27587,10 +27587,10 @@
         <v>173.3911476697823</v>
       </c>
       <c r="S4" t="n">
-        <v>43.44428031981417</v>
+        <v>222.3574069614225</v>
       </c>
       <c r="T4" t="n">
-        <v>228.3324659915077</v>
+        <v>211.0534113588162</v>
       </c>
       <c r="U4" t="n">
         <v>286.0522703910642</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>383.716409991395</v>
+        <v>109.4326026497926</v>
       </c>
       <c r="C5" t="n">
         <v>92.70128833734015</v>
@@ -27627,7 +27627,7 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F5" t="n">
-        <v>254.6506955952646</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T5" t="n">
         <v>222.9651171964204</v>
@@ -27681,7 +27681,7 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X5" t="n">
-        <v>370.8615991311694</v>
+        <v>293.9311503444974</v>
       </c>
       <c r="Y5" t="n">
         <v>112.4032644096333</v>
@@ -27709,13 +27709,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27754,10 +27754,10 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>187.1537033432166</v>
       </c>
       <c r="W6" t="n">
-        <v>104.1537809005699</v>
+        <v>249.98934675</v>
       </c>
       <c r="X6" t="n">
         <v>204.4616296084783</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R7" t="n">
         <v>173.3911476697823</v>
@@ -27827,10 +27827,10 @@
         <v>222.3574069614225</v>
       </c>
       <c r="T7" t="n">
-        <v>228.3324659915077</v>
+        <v>49.4193393498993</v>
       </c>
       <c r="U7" t="n">
-        <v>186.899843625304</v>
+        <v>286.0522703910642</v>
       </c>
       <c r="V7" t="n">
         <v>252.9363510669392</v>
@@ -27855,7 +27855,7 @@
         <v>109.4326026497926</v>
       </c>
       <c r="C8" t="n">
-        <v>366.9850956789426</v>
+        <v>92.70128833734015</v>
       </c>
       <c r="D8" t="n">
         <v>356.6047327545984</v>
@@ -27864,7 +27864,7 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F8" t="n">
-        <v>271.0915839335834</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,10 +27873,10 @@
         <v>338.1439033881534</v>
       </c>
       <c r="I8" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S8" t="n">
         <v>205.8649517235392</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U8" t="n">
         <v>251.4777635765444</v>
@@ -27915,13 +27915,13 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W8" t="n">
-        <v>350.5301170005546</v>
+        <v>336.9731533811294</v>
       </c>
       <c r="X8" t="n">
-        <v>96.5777917895669</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.6870717512358</v>
+        <v>112.4032644096333</v>
       </c>
     </row>
     <row r="9">
@@ -27931,13 +27931,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>6.688050119957097</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -27994,13 +27994,13 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W9" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>125.741980398888</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="10">
@@ -28016,7 +28016,7 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D10" t="n">
-        <v>149.0055665145194</v>
+        <v>49.85313974875918</v>
       </c>
       <c r="E10" t="n">
         <v>146.9746241731992</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>79.76069987584818</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>173.3911476697823</v>
@@ -28064,7 +28064,7 @@
         <v>222.3574069614225</v>
       </c>
       <c r="T10" t="n">
-        <v>49.4193393498993</v>
+        <v>228.3324659915077</v>
       </c>
       <c r="U10" t="n">
         <v>286.0522703910642</v>
@@ -31752,13 +31752,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.245045927358034</v>
+        <v>1.245045927358033</v>
       </c>
       <c r="H11" t="n">
-        <v>12.75082660355547</v>
+        <v>12.75082660355546</v>
       </c>
       <c r="I11" t="n">
-        <v>47.99963311447064</v>
+        <v>47.99963311447063</v>
       </c>
       <c r="J11" t="n">
         <v>105.671716777104</v>
@@ -31767,10 +31767,10 @@
         <v>158.3745108821696</v>
       </c>
       <c r="L11" t="n">
-        <v>196.4775851815531</v>
+        <v>196.477585181553</v>
       </c>
       <c r="M11" t="n">
-        <v>218.6191706922065</v>
+        <v>218.6191706922064</v>
       </c>
       <c r="N11" t="n">
         <v>222.1566574333125</v>
@@ -31779,22 +31779,22 @@
         <v>209.776231993146</v>
       </c>
       <c r="P11" t="n">
-        <v>179.0391606614946</v>
+        <v>179.0391606614945</v>
       </c>
       <c r="Q11" t="n">
-        <v>134.450953387985</v>
+        <v>134.4509533879849</v>
       </c>
       <c r="R11" t="n">
-        <v>78.20911623440415</v>
+        <v>78.20911623440414</v>
       </c>
       <c r="S11" t="n">
         <v>28.37148406967122</v>
       </c>
       <c r="T11" t="n">
-        <v>5.450188547009795</v>
+        <v>5.450188547009794</v>
       </c>
       <c r="U11" t="n">
-        <v>0.09960367418864267</v>
+        <v>0.09960367418864266</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6661582997180276</v>
+        <v>0.6661582997180275</v>
       </c>
       <c r="H12" t="n">
-        <v>6.433686736750426</v>
+        <v>6.433686736750425</v>
       </c>
       <c r="I12" t="n">
         <v>22.93571338941455</v>
       </c>
       <c r="J12" t="n">
-        <v>62.93735058871069</v>
+        <v>62.93735058871067</v>
       </c>
       <c r="K12" t="n">
         <v>107.5699566698185</v>
@@ -31852,7 +31852,7 @@
         <v>168.7893200645195</v>
       </c>
       <c r="N12" t="n">
-        <v>173.2566711183304</v>
+        <v>173.2566711183303</v>
       </c>
       <c r="O12" t="n">
         <v>158.4960056351046</v>
@@ -31861,19 +31861,19 @@
         <v>127.2070177768574</v>
       </c>
       <c r="Q12" t="n">
-        <v>85.03452260962052</v>
+        <v>85.03452260962051</v>
       </c>
       <c r="R12" t="n">
-        <v>41.36024952108949</v>
+        <v>41.36024952108948</v>
       </c>
       <c r="S12" t="n">
-        <v>12.3735982425695</v>
+        <v>12.37359824256949</v>
       </c>
       <c r="T12" t="n">
-        <v>2.685085427372225</v>
+        <v>2.685085427372224</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04382620392881763</v>
+        <v>0.04382620392881762</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5584847407759708</v>
+        <v>0.5584847407759707</v>
       </c>
       <c r="H13" t="n">
-        <v>4.96543705889909</v>
+        <v>4.965437058899089</v>
       </c>
       <c r="I13" t="n">
         <v>16.79515929533556</v>
@@ -31922,37 +31922,37 @@
         <v>39.48487117286113</v>
       </c>
       <c r="K13" t="n">
-        <v>64.88577261015368</v>
+        <v>64.88577261015367</v>
       </c>
       <c r="L13" t="n">
-        <v>83.03144955136571</v>
+        <v>83.0314495513657</v>
       </c>
       <c r="M13" t="n">
-        <v>87.54502168363693</v>
+        <v>87.54502168363692</v>
       </c>
       <c r="N13" t="n">
-        <v>85.46339674074476</v>
+        <v>85.46339674074474</v>
       </c>
       <c r="O13" t="n">
-        <v>78.93927954167997</v>
+        <v>78.93927954167995</v>
       </c>
       <c r="P13" t="n">
-        <v>67.54619082985012</v>
+        <v>67.5461908298501</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.76548133897698</v>
+        <v>46.76548133897697</v>
       </c>
       <c r="R13" t="n">
         <v>25.11150479889046</v>
       </c>
       <c r="S13" t="n">
-        <v>9.732865891523051</v>
+        <v>9.732865891523049</v>
       </c>
       <c r="T13" t="n">
         <v>2.386252983315511</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03046280404232572</v>
+        <v>0.03046280404232571</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.245045927358034</v>
+        <v>1.245045927358033</v>
       </c>
       <c r="H14" t="n">
-        <v>12.75082660355547</v>
+        <v>12.75082660355546</v>
       </c>
       <c r="I14" t="n">
-        <v>47.99963311447064</v>
+        <v>47.99963311447063</v>
       </c>
       <c r="J14" t="n">
         <v>105.671716777104</v>
@@ -32004,10 +32004,10 @@
         <v>158.3745108821696</v>
       </c>
       <c r="L14" t="n">
-        <v>196.4775851815531</v>
+        <v>196.477585181553</v>
       </c>
       <c r="M14" t="n">
-        <v>218.6191706922065</v>
+        <v>218.6191706922064</v>
       </c>
       <c r="N14" t="n">
         <v>222.1566574333125</v>
@@ -32016,22 +32016,22 @@
         <v>209.776231993146</v>
       </c>
       <c r="P14" t="n">
-        <v>179.0391606614946</v>
+        <v>179.0391606614945</v>
       </c>
       <c r="Q14" t="n">
-        <v>134.450953387985</v>
+        <v>134.4509533879849</v>
       </c>
       <c r="R14" t="n">
-        <v>78.20911623440415</v>
+        <v>78.20911623440414</v>
       </c>
       <c r="S14" t="n">
         <v>28.37148406967122</v>
       </c>
       <c r="T14" t="n">
-        <v>5.450188547009795</v>
+        <v>5.450188547009794</v>
       </c>
       <c r="U14" t="n">
-        <v>0.09960367418864267</v>
+        <v>0.09960367418864266</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6661582997180276</v>
+        <v>0.6661582997180275</v>
       </c>
       <c r="H15" t="n">
-        <v>6.433686736750426</v>
+        <v>6.433686736750425</v>
       </c>
       <c r="I15" t="n">
         <v>22.93571338941455</v>
       </c>
       <c r="J15" t="n">
-        <v>62.93735058871069</v>
+        <v>62.93735058871067</v>
       </c>
       <c r="K15" t="n">
         <v>107.5699566698185</v>
@@ -32089,7 +32089,7 @@
         <v>168.7893200645195</v>
       </c>
       <c r="N15" t="n">
-        <v>173.2566711183304</v>
+        <v>173.2566711183303</v>
       </c>
       <c r="O15" t="n">
         <v>158.4960056351046</v>
@@ -32098,19 +32098,19 @@
         <v>127.2070177768574</v>
       </c>
       <c r="Q15" t="n">
-        <v>85.03452260962052</v>
+        <v>85.03452260962051</v>
       </c>
       <c r="R15" t="n">
-        <v>41.36024952108949</v>
+        <v>41.36024952108948</v>
       </c>
       <c r="S15" t="n">
-        <v>12.3735982425695</v>
+        <v>12.37359824256949</v>
       </c>
       <c r="T15" t="n">
-        <v>2.685085427372225</v>
+        <v>2.685085427372224</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04382620392881763</v>
+        <v>0.04382620392881762</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5584847407759708</v>
+        <v>0.5584847407759707</v>
       </c>
       <c r="H16" t="n">
-        <v>4.96543705889909</v>
+        <v>4.965437058899089</v>
       </c>
       <c r="I16" t="n">
         <v>16.79515929533556</v>
@@ -32159,37 +32159,37 @@
         <v>39.48487117286113</v>
       </c>
       <c r="K16" t="n">
-        <v>64.88577261015368</v>
+        <v>64.88577261015367</v>
       </c>
       <c r="L16" t="n">
-        <v>83.03144955136571</v>
+        <v>83.0314495513657</v>
       </c>
       <c r="M16" t="n">
-        <v>87.54502168363693</v>
+        <v>87.54502168363692</v>
       </c>
       <c r="N16" t="n">
-        <v>85.46339674074476</v>
+        <v>85.46339674074474</v>
       </c>
       <c r="O16" t="n">
-        <v>78.93927954167997</v>
+        <v>78.93927954167995</v>
       </c>
       <c r="P16" t="n">
-        <v>67.54619082985012</v>
+        <v>67.5461908298501</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.76548133897698</v>
+        <v>46.76548133897697</v>
       </c>
       <c r="R16" t="n">
         <v>25.11150479889046</v>
       </c>
       <c r="S16" t="n">
-        <v>9.732865891523051</v>
+        <v>9.732865891523049</v>
       </c>
       <c r="T16" t="n">
         <v>2.386252983315511</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03046280404232572</v>
+        <v>0.03046280404232571</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -34786,19 +34786,19 @@
         <v>250.5834388302202</v>
       </c>
       <c r="M3" t="n">
-        <v>219.9611335109387</v>
+        <v>67.95374244162382</v>
       </c>
       <c r="N3" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>270.5854737144654</v>
       </c>
       <c r="P3" t="n">
-        <v>200.5762321565626</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34956,7 +34956,7 @@
         <v>109.2184856369541</v>
       </c>
       <c r="Q5" t="n">
-        <v>4.059542658712711</v>
+        <v>4.059542658712616</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>140.6484434930818</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>250.5834388302202</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="N6" t="n">
-        <v>216.1914763840507</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="O6" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P6" t="n">
-        <v>200.5762321565626</v>
+        <v>16.31652810451531</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35254,16 +35254,16 @@
         <v>7.467990754025152</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5579630241179641</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L9" t="n">
         <v>250.5834388302202</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>134.1933268726387</v>
       </c>
       <c r="N9" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>270.5854737144654</v>
@@ -35418,19 +35418,19 @@
         <v>400.9729937182839</v>
       </c>
       <c r="M11" t="n">
-        <v>461.5256681281614</v>
+        <v>461.5256681281613</v>
       </c>
       <c r="N11" t="n">
-        <v>453.3197218150999</v>
+        <v>453.3197218150998</v>
       </c>
       <c r="O11" t="n">
-        <v>381.4626643702567</v>
+        <v>381.4626643702566</v>
       </c>
       <c r="P11" t="n">
         <v>288.2576462984487</v>
       </c>
       <c r="Q11" t="n">
-        <v>138.5104960466976</v>
+        <v>138.5104960466975</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35494,7 +35494,7 @@
         <v>248.2184001629003</v>
       </c>
       <c r="L12" t="n">
-        <v>395.2245205299613</v>
+        <v>395.2245205299612</v>
       </c>
       <c r="M12" t="n">
         <v>514.5419032905515</v>
@@ -35503,13 +35503,13 @@
         <v>543.714571154376</v>
       </c>
       <c r="O12" t="n">
-        <v>429.0814793495699</v>
+        <v>313.4444480145728</v>
       </c>
       <c r="P12" t="n">
         <v>327.7832499334201</v>
       </c>
       <c r="Q12" t="n">
-        <v>51.39564078603548</v>
+        <v>167.0326721210326</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>50.11136289232033</v>
+        <v>50.11136289232032</v>
       </c>
       <c r="L13" t="n">
         <v>120.492579780375</v>
@@ -35585,7 +35585,7 @@
         <v>113.507487571651</v>
       </c>
       <c r="P13" t="n">
-        <v>73.66821272853396</v>
+        <v>73.66821272853394</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35655,19 +35655,19 @@
         <v>400.9729937182839</v>
       </c>
       <c r="M14" t="n">
-        <v>461.5256681281614</v>
+        <v>461.5256681281613</v>
       </c>
       <c r="N14" t="n">
-        <v>453.3197218150999</v>
+        <v>453.3197218150998</v>
       </c>
       <c r="O14" t="n">
-        <v>381.4626643702567</v>
+        <v>381.4626643702566</v>
       </c>
       <c r="P14" t="n">
         <v>288.2576462984487</v>
       </c>
       <c r="Q14" t="n">
-        <v>138.5104960466976</v>
+        <v>138.5104960466975</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,19 +35725,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>70.40534134273584</v>
+        <v>70.40534134273582</v>
       </c>
       <c r="K15" t="n">
         <v>248.2184001629003</v>
       </c>
       <c r="L15" t="n">
-        <v>395.2245205299613</v>
+        <v>395.2245205299612</v>
       </c>
       <c r="M15" t="n">
-        <v>495.532202733851</v>
+        <v>514.5419032905515</v>
       </c>
       <c r="N15" t="n">
-        <v>543.714571154376</v>
+        <v>357.6721984766432</v>
       </c>
       <c r="O15" t="n">
         <v>429.0814793495699</v>
@@ -35746,7 +35746,7 @@
         <v>327.7832499334201</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>167.0326721210326</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>50.11136289232033</v>
+        <v>50.11136289232032</v>
       </c>
       <c r="L16" t="n">
         <v>120.492579780375</v>
@@ -35822,7 +35822,7 @@
         <v>113.507487571651</v>
       </c>
       <c r="P16" t="n">
-        <v>73.66821272853396</v>
+        <v>73.66821272853394</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35974,13 +35974,13 @@
         <v>514.5419032905515</v>
       </c>
       <c r="N18" t="n">
-        <v>357.6721984766432</v>
+        <v>543.714571154376</v>
       </c>
       <c r="O18" t="n">
         <v>429.0814793495699</v>
       </c>
       <c r="P18" t="n">
-        <v>327.7832499334201</v>
+        <v>141.7408772556873</v>
       </c>
       <c r="Q18" t="n">
         <v>167.0326721210326</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>70.40534134273582</v>
       </c>
       <c r="K21" t="n">
         <v>248.2184001629003</v>
@@ -36217,10 +36217,10 @@
         <v>429.0814793495699</v>
       </c>
       <c r="P21" t="n">
-        <v>327.7832499334201</v>
+        <v>141.7408772556873</v>
       </c>
       <c r="Q21" t="n">
-        <v>51.39564078603548</v>
+        <v>167.0326721210326</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>70.40534134273582</v>
       </c>
       <c r="K24" t="n">
         <v>248.2184001629003</v>
@@ -36448,7 +36448,7 @@
         <v>514.5419032905515</v>
       </c>
       <c r="N24" t="n">
-        <v>543.714571154376</v>
+        <v>357.6721984766432</v>
       </c>
       <c r="O24" t="n">
         <v>429.0814793495699</v>
@@ -36457,7 +36457,7 @@
         <v>327.7832499334201</v>
       </c>
       <c r="Q24" t="n">
-        <v>51.39564078603548</v>
+        <v>167.0326721210326</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36685,13 +36685,13 @@
         <v>514.5419032905515</v>
       </c>
       <c r="N27" t="n">
-        <v>543.714571154376</v>
+        <v>357.6721984766432</v>
       </c>
       <c r="O27" t="n">
         <v>429.0814793495699</v>
       </c>
       <c r="P27" t="n">
-        <v>141.7408772556873</v>
+        <v>327.7832499334201</v>
       </c>
       <c r="Q27" t="n">
         <v>167.0326721210326</v>
@@ -36922,16 +36922,16 @@
         <v>514.5419032905515</v>
       </c>
       <c r="N30" t="n">
-        <v>543.714571154376</v>
+        <v>357.6721984766432</v>
       </c>
       <c r="O30" t="n">
         <v>429.0814793495699</v>
       </c>
       <c r="P30" t="n">
-        <v>308.7735493767197</v>
+        <v>327.7832499334201</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>167.0326721210326</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>51.3956407860353</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>248.2184001629003</v>
@@ -37159,7 +37159,7 @@
         <v>514.5419032905515</v>
       </c>
       <c r="N33" t="n">
-        <v>543.714571154376</v>
+        <v>428.0775398193789</v>
       </c>
       <c r="O33" t="n">
         <v>429.0814793495699</v>
@@ -37168,7 +37168,7 @@
         <v>327.7832499334201</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>167.0326721210326</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>70.40534134273582</v>
       </c>
       <c r="K36" t="n">
         <v>248.2184001629003</v>
@@ -37396,7 +37396,7 @@
         <v>514.5419032905515</v>
       </c>
       <c r="N36" t="n">
-        <v>543.714571154376</v>
+        <v>357.6721984766432</v>
       </c>
       <c r="O36" t="n">
         <v>429.0814793495699</v>
@@ -37405,7 +37405,7 @@
         <v>327.7832499334201</v>
       </c>
       <c r="Q36" t="n">
-        <v>51.39564078603548</v>
+        <v>167.0326721210326</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>70.40534134273582</v>
       </c>
       <c r="K39" t="n">
         <v>248.2184001629003</v>
@@ -37633,7 +37633,7 @@
         <v>514.5419032905515</v>
       </c>
       <c r="N39" t="n">
-        <v>543.714571154376</v>
+        <v>357.6721984766432</v>
       </c>
       <c r="O39" t="n">
         <v>429.0814793495699</v>
@@ -37642,7 +37642,7 @@
         <v>327.7832499334201</v>
       </c>
       <c r="Q39" t="n">
-        <v>51.39564078603548</v>
+        <v>167.0326721210326</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>70.40534134273582</v>
       </c>
       <c r="K42" t="n">
         <v>248.2184001629003</v>
@@ -37870,7 +37870,7 @@
         <v>514.5419032905515</v>
       </c>
       <c r="N42" t="n">
-        <v>543.714571154376</v>
+        <v>357.6721984766432</v>
       </c>
       <c r="O42" t="n">
         <v>429.0814793495699</v>
@@ -37879,7 +37879,7 @@
         <v>327.7832499334201</v>
       </c>
       <c r="Q42" t="n">
-        <v>51.39564078603548</v>
+        <v>167.0326721210326</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>105.0124396425416</v>
       </c>
       <c r="K44" t="n">
-        <v>280.8981351873249</v>
+        <v>280.8981351873248</v>
       </c>
       <c r="L44" t="n">
         <v>400.9729937182839</v>
@@ -38037,7 +38037,7 @@
         <v>288.2576462984487</v>
       </c>
       <c r="Q44" t="n">
-        <v>138.5104960466976</v>
+        <v>138.5104960466975</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>51.3956407860353</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>248.2184001629003</v>
       </c>
       <c r="L45" t="n">
-        <v>395.2245205299612</v>
+        <v>279.5874891949642</v>
       </c>
       <c r="M45" t="n">
         <v>514.5419032905515</v>
@@ -38116,7 +38116,7 @@
         <v>327.7832499334201</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>167.0326721210326</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
